--- a/Literature_overview.xlsx
+++ b/Literature_overview.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087AAA4C-F048-4475-AD33-FFEF2EF7BCAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0E04CE-0787-442C-94DF-564D0DFC72F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7106,10 +7106,10 @@
   <dimension ref="A1:CG84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P86" sqref="P86"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18063,7 +18063,7 @@
       <c r="CF73" s="2"/>
       <c r="CG73" s="2"/>
     </row>
-    <row r="74" spans="1:85" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:85" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
         <v>912</v>
       </c>

--- a/Literature_overview.xlsx
+++ b/Literature_overview.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87FD6A4-9AA2-46F9-AC7B-DC17D06FB625}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438EEE91-0FD1-46B1-BBD3-9F1184794CF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -745,7 +745,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="1132">
   <si>
     <t>Publication</t>
   </si>
@@ -4086,9 +4086,6 @@
     </r>
   </si>
   <si>
-    <t>dual humanness (speaking and listening), "Humanness perception of technology is defined as the degree to which a user feels a certain technology or system is human-like (versus machine-like)"</t>
-  </si>
-  <si>
     <t>validates humanness perception measurements (questionnaires)</t>
   </si>
   <si>
@@ -6707,6 +6704,22 @@
   </si>
   <si>
     <t>realism, human-likeness, anthropomorphism</t>
+  </si>
+  <si>
+    <t>"‘‘Humanoid’’ is adopted as the working term in this article to refer to the state of being humanlike but bearing
+the clear artificiality of computer synthesis." (page 2)</t>
+  </si>
+  <si>
+    <t>self-disclosure in interview</t>
+  </si>
+  <si>
+    <t>voice quality, clarity</t>
+  </si>
+  <si>
+    <t>realism, human-likeness, robotic, anthropomorphism, expressiveness</t>
+  </si>
+  <si>
+    <t>dual humanness (speaking and listening), "Humanness perception of technology is defined as the degree to which a user feels a certain technology or system is human-like (versus machine-like)" (p 3)</t>
   </si>
 </sst>
 </file>
@@ -7302,10 +7315,10 @@
   <dimension ref="A1:CK84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
+      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7350,16 +7363,16 @@
   <sheetData>
     <row r="1" spans="1:89" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -7371,34 +7384,34 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="K1" s="51" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>1083</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>1084</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>20</v>
@@ -7410,117 +7423,117 @@
         <v>7</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>25</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="AH1" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="AH1" s="26" t="s">
+      <c r="AK1" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="AK1" s="26" t="s">
-        <v>600</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="AN1" s="26" t="s">
+      <c r="AQ1" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="AQ1" s="26" t="s">
-        <v>604</v>
-      </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="AV1" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>610</v>
-      </c>
       <c r="AY1" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AZ1" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="BA1" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="BA1" s="2" t="s">
-        <v>978</v>
-      </c>
       <c r="BB1" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="2" spans="1:89" s="3" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>346</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>24</v>
@@ -7535,7 +7548,7 @@
         <v>32</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I2" s="6">
         <v>2</v>
@@ -7547,7 +7560,7 @@
         <v>44</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M2" s="42" t="s">
         <v>24</v>
@@ -7559,10 +7572,10 @@
         <v>347</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>1087</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>1088</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>350</v>
@@ -7582,7 +7595,7 @@
         <v>24</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Z2" s="13">
         <v>4</v>
@@ -7591,7 +7604,7 @@
         <v>8</v>
       </c>
       <c r="AB2" s="13" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AC2" s="13">
         <v>2.5</v>
@@ -7600,72 +7613,72 @@
         <v>2.5</v>
       </c>
       <c r="AE2" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF2" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="AF2" s="18" t="s">
+      <c r="AG2" s="13" t="s">
         <v>643</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AH2" s="25" t="s">
         <v>644</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="AI2" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="AI2" s="13" t="s">
+      <c r="AJ2" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="AK2" s="25" t="s">
+        <v>644</v>
+      </c>
+      <c r="AL2" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="AM2" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="AJ2" s="13" t="s">
-        <v>644</v>
-      </c>
-      <c r="AK2" s="25" t="s">
+      <c r="AN2" s="25" t="s">
+        <v>647</v>
+      </c>
+      <c r="AO2" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="AL2" s="13" t="s">
+      <c r="AP2" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="AM2" s="13" t="s">
+      <c r="AQ2" s="25" t="s">
         <v>647</v>
       </c>
-      <c r="AN2" s="25" t="s">
+      <c r="AR2" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="AS2" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="AO2" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="AP2" s="13" t="s">
-        <v>647</v>
-      </c>
-      <c r="AQ2" s="25" t="s">
+      <c r="AT2" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="AU2" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="AV2" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="AR2" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="AS2" s="13" t="s">
+      <c r="AW2" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="AT2" s="13" t="s">
-        <v>650</v>
-      </c>
-      <c r="AU2" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="AV2" s="13" t="s">
-        <v>649</v>
-      </c>
-      <c r="AW2" s="13" t="s">
-        <v>650</v>
-      </c>
       <c r="AX2" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AY2" s="2"/>
       <c r="AZ2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="BA2" s="2"/>
       <c r="BB2" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2"/>
@@ -7705,13 +7718,13 @@
     </row>
     <row r="3" spans="1:89" s="4" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>24</v>
@@ -7726,19 +7739,19 @@
         <v>64</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I3" s="4">
         <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="K3" s="43" t="s">
         <v>24</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="M3" s="43" t="s">
         <v>44</v>
@@ -7753,7 +7766,7 @@
         <v>163</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>83</v>
@@ -7771,7 +7784,7 @@
         <v>24</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z3" s="4">
         <v>9</v>
@@ -7780,7 +7793,7 @@
         <v>16</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AC3" s="4">
         <v>2.6</v>
@@ -7789,64 +7802,64 @@
         <v>2.6739999999999999</v>
       </c>
       <c r="AE3" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="AH3" s="28" t="s">
         <v>685</v>
       </c>
-      <c r="AF3" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="AH3" s="28" t="s">
+      <c r="AI3" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="AN3" s="28" t="s">
         <v>686</v>
       </c>
-      <c r="AI3" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>847</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="AN3" s="28" t="s">
+      <c r="AO3" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="AQ3" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="AS3" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="AO3" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="AQ3" s="28" t="s">
+      <c r="AT3" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="AW3" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="AR3" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="AU3" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="AW3" s="4" t="s">
-        <v>694</v>
-      </c>
       <c r="AX3" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
@@ -7890,13 +7903,13 @@
     </row>
     <row r="4" spans="1:89" s="6" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>24</v>
@@ -7915,13 +7928,13 @@
         <v>1</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="K4" s="43" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="M4" s="43" t="s">
         <v>24</v>
@@ -7933,10 +7946,10 @@
         <v>65</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>68</v>
@@ -7954,7 +7967,7 @@
         <v>24</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z4" s="4">
         <v>41</v>
@@ -7963,7 +7976,7 @@
         <v>91</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AC4" s="4">
         <v>2.6</v>
@@ -7972,64 +7985,64 @@
         <v>1.526</v>
       </c>
       <c r="AE4" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="AH4" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="AF4" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="AN4" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="AI4" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AO4" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="AL4" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="AO4" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="AP4" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
+      <c r="AR4" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="AW4" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="AR4" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="AT4" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="AU4" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="AV4" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="AW4" s="4" t="s">
-        <v>692</v>
-      </c>
       <c r="AX4" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AY4" s="2"/>
       <c r="AZ4" s="2"/>
@@ -8073,13 +8086,13 @@
     </row>
     <row r="5" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>24</v>
@@ -8094,19 +8107,19 @@
         <v>77</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I5" s="6">
         <v>2</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="K5" s="42" t="s">
         <v>44</v>
       </c>
       <c r="L5" s="52" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="M5" s="42" t="s">
         <v>24</v>
@@ -8118,10 +8131,10 @@
         <v>79</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="R5" s="6" t="s">
         <v>80</v>
@@ -8133,14 +8146,14 @@
         <v>44</v>
       </c>
       <c r="Y5" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z5" s="13"/>
       <c r="AA5" s="13">
         <v>68</v>
       </c>
       <c r="AB5" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AC5" s="13"/>
       <c r="AD5" s="13"/>
@@ -8206,13 +8219,13 @@
     </row>
     <row r="6" spans="1:89" s="8" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>400</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>24</v>
@@ -8227,7 +8240,7 @@
         <v>80</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I6" s="6">
         <v>2</v>
@@ -8239,7 +8252,7 @@
         <v>44</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M6" s="42" t="s">
         <v>24</v>
@@ -8251,10 +8264,10 @@
         <v>403</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="R6" s="6" t="s">
         <v>402</v>
@@ -8272,7 +8285,7 @@
         <v>24</v>
       </c>
       <c r="Y6" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Z6" s="13">
         <v>15</v>
@@ -8281,7 +8294,7 @@
         <v>36</v>
       </c>
       <c r="AB6" s="13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AC6" s="13">
         <v>11.2</v>
@@ -8290,44 +8303,44 @@
         <v>4.585</v>
       </c>
       <c r="AE6" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AF6" s="13"/>
       <c r="AG6" s="13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AH6" s="25" t="s">
+        <v>779</v>
+      </c>
+      <c r="AI6" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="AJ6" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="AK6" s="25" t="s">
         <v>780</v>
       </c>
-      <c r="AI6" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="AJ6" s="13" t="s">
-        <v>644</v>
-      </c>
-      <c r="AK6" s="25" t="s">
+      <c r="AL6" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="AM6" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="AN6" s="25" t="s">
+        <v>782</v>
+      </c>
+      <c r="AO6" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="AP6" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="AQ6" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="AL6" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="AM6" s="13" t="s">
-        <v>647</v>
-      </c>
-      <c r="AN6" s="25" t="s">
-        <v>783</v>
-      </c>
-      <c r="AO6" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="AP6" s="13" t="s">
+      <c r="AR6" s="13" t="s">
         <v>595</v>
-      </c>
-      <c r="AQ6" s="25" t="s">
-        <v>782</v>
-      </c>
-      <c r="AR6" s="13" t="s">
-        <v>596</v>
       </c>
       <c r="AS6" s="13"/>
       <c r="AT6" s="13"/>
@@ -8337,7 +8350,7 @@
       <c r="AX6" s="13"/>
       <c r="AY6" s="2"/>
       <c r="AZ6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="BA6" s="2"/>
       <c r="BB6" s="2"/>
@@ -8379,13 +8392,13 @@
     </row>
     <row r="7" spans="1:89" s="6" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>94</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>24</v>
@@ -8400,7 +8413,7 @@
         <v>32</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I7" s="6">
         <v>2</v>
@@ -8412,7 +8425,7 @@
         <v>44</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M7" s="42" t="s">
         <v>24</v>
@@ -8424,10 +8437,10 @@
         <v>93</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="R7" s="6" t="s">
         <v>97</v>
@@ -8439,14 +8452,14 @@
         <v>44</v>
       </c>
       <c r="Y7" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z7" s="13"/>
       <c r="AA7" s="13">
         <v>20</v>
       </c>
       <c r="AB7" s="13" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AC7" s="13"/>
       <c r="AD7" s="13"/>
@@ -8512,13 +8525,13 @@
     </row>
     <row r="8" spans="1:89" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>24</v>
@@ -8533,7 +8546,7 @@
         <v>32</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I8" s="6">
         <v>2</v>
@@ -8545,7 +8558,7 @@
         <v>44</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M8" s="42" t="s">
         <v>24</v>
@@ -8557,10 +8570,10 @@
         <v>90</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="R8" s="6" t="s">
         <v>97</v>
@@ -8575,7 +8588,7 @@
         <v>24</v>
       </c>
       <c r="Y8" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z8" s="13">
         <v>11</v>
@@ -8584,7 +8597,7 @@
         <v>27</v>
       </c>
       <c r="AB8" s="13" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AC8" s="13">
         <v>1.4</v>
@@ -8593,46 +8606,46 @@
         <v>0.92700000000000005</v>
       </c>
       <c r="AE8" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="AF8" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG8" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="AH8" s="25" t="s">
         <v>761</v>
       </c>
-      <c r="AF8" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG8" s="13" t="s">
-        <v>698</v>
-      </c>
-      <c r="AH8" s="25" t="s">
+      <c r="AI8" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="AJ8" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="AK8" s="25" t="s">
+        <v>763</v>
+      </c>
+      <c r="AL8" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="AM8" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="AN8" s="25" t="s">
         <v>762</v>
       </c>
-      <c r="AI8" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="AJ8" s="13" t="s">
-        <v>698</v>
-      </c>
-      <c r="AK8" s="25" t="s">
+      <c r="AO8" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="AP8" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="AQ8" s="25" t="s">
         <v>764</v>
       </c>
-      <c r="AL8" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="AM8" s="13" t="s">
-        <v>706</v>
-      </c>
-      <c r="AN8" s="25" t="s">
-        <v>763</v>
-      </c>
-      <c r="AO8" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="AP8" s="13" t="s">
-        <v>706</v>
-      </c>
-      <c r="AQ8" s="25" t="s">
-        <v>765</v>
-      </c>
       <c r="AR8" s="13" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AS8" s="13"/>
       <c r="AT8" s="13"/>
@@ -8642,11 +8655,11 @@
       <c r="AX8" s="13"/>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="39" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="BC8" s="2"/>
       <c r="BD8" s="2"/>
@@ -8686,13 +8699,13 @@
     </row>
     <row r="9" spans="1:89" s="4" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>24</v>
@@ -8707,19 +8720,19 @@
         <v>32</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I9" s="6">
         <v>2</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="K9" s="42" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M9" s="42" t="s">
         <v>24</v>
@@ -8731,10 +8744,10 @@
         <v>100</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="R9" s="6" t="s">
         <v>98</v>
@@ -8752,14 +8765,14 @@
         <v>44</v>
       </c>
       <c r="Y9" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z9" s="13"/>
       <c r="AA9" s="13">
         <v>37</v>
       </c>
       <c r="AB9" s="13" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
@@ -8785,10 +8798,10 @@
       <c r="AX9" s="13"/>
       <c r="AY9" s="2"/>
       <c r="AZ9" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="BA9" s="2" t="s">
         <v>1031</v>
-      </c>
-      <c r="BA9" s="2" t="s">
-        <v>1032</v>
       </c>
       <c r="BB9" s="2"/>
       <c r="BC9" s="2"/>
@@ -8829,13 +8842,13 @@
     </row>
     <row r="10" spans="1:89" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>24</v>
@@ -8850,7 +8863,7 @@
         <v>128</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I10" s="6">
         <v>2</v>
@@ -8862,7 +8875,7 @@
         <v>44</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="M10" s="42" t="s">
         <v>44</v>
@@ -8871,15 +8884,15 @@
         <v>0</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="6" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
@@ -8889,7 +8902,7 @@
         <v>24</v>
       </c>
       <c r="Y10" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z10" s="13">
         <v>15</v>
@@ -8898,7 +8911,7 @@
         <v>30</v>
       </c>
       <c r="AB10" s="13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AC10" s="13">
         <v>4.3</v>
@@ -8907,28 +8920,28 @@
         <v>1.776</v>
       </c>
       <c r="AE10" s="13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AF10" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG10" s="13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AH10" s="25" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AI10" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AJ10" s="13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AK10" s="25" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AL10" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AM10" s="13"/>
       <c r="AN10" s="25"/>
@@ -8944,7 +8957,7 @@
       <c r="AX10" s="13"/>
       <c r="AY10" s="2"/>
       <c r="AZ10" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="BA10" s="2"/>
       <c r="BB10" s="2"/>
@@ -8986,13 +8999,13 @@
     </row>
     <row r="11" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>395</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>24</v>
@@ -9007,7 +9020,7 @@
         <v>396</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I11" s="6">
         <v>2</v>
@@ -9019,7 +9032,7 @@
         <v>44</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="M11" s="42" t="s">
         <v>24</v>
@@ -9031,10 +9044,10 @@
         <v>399</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="R11" s="11" t="s">
         <v>163</v>
@@ -9049,7 +9062,7 @@
         <v>24</v>
       </c>
       <c r="Y11" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z11" s="13">
         <v>5</v>
@@ -9058,7 +9071,7 @@
         <v>9</v>
       </c>
       <c r="AB11" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AC11" s="13">
         <v>3.2</v>
@@ -9067,46 +9080,46 @@
         <v>2.7229999999999999</v>
       </c>
       <c r="AE11" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="AF11" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG11" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="AF11" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG11" s="13" t="s">
+      <c r="AH11" s="25" t="s">
         <v>698</v>
       </c>
-      <c r="AH11" s="25" t="s">
+      <c r="AI11" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="AJ11" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="AK11" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="AL11" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="AM11" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="AN11" s="25" t="s">
         <v>699</v>
       </c>
-      <c r="AI11" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="AJ11" s="13" t="s">
-        <v>698</v>
-      </c>
-      <c r="AK11" s="13" t="s">
-        <v>846</v>
-      </c>
-      <c r="AL11" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="AM11" s="13" t="s">
-        <v>674</v>
-      </c>
-      <c r="AN11" s="25" t="s">
+      <c r="AO11" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="AP11" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="AQ11" s="25" t="s">
         <v>700</v>
       </c>
-      <c r="AO11" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="AP11" s="13" t="s">
-        <v>674</v>
-      </c>
-      <c r="AQ11" s="25" t="s">
-        <v>701</v>
-      </c>
       <c r="AR11" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AS11" s="13"/>
       <c r="AT11" s="13"/>
@@ -9116,7 +9129,7 @@
       <c r="AX11" s="13"/>
       <c r="AY11" s="2"/>
       <c r="AZ11" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="BA11" s="2"/>
       <c r="BB11" s="2"/>
@@ -9158,13 +9171,13 @@
     </row>
     <row r="12" spans="1:89" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>24</v>
@@ -9179,7 +9192,7 @@
         <v>32</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I12" s="6">
         <v>2</v>
@@ -9191,7 +9204,7 @@
         <v>44</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M12" s="42" t="s">
         <v>24</v>
@@ -9203,10 +9216,10 @@
         <v>104</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="R12" s="6" t="s">
         <v>103</v>
@@ -9226,14 +9239,14 @@
         <v>44</v>
       </c>
       <c r="Y12" s="13" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Z12" s="13"/>
       <c r="AA12" s="13">
         <v>43</v>
       </c>
       <c r="AB12" s="13" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
@@ -9259,7 +9272,7 @@
       <c r="AX12" s="13"/>
       <c r="AY12" s="2"/>
       <c r="AZ12" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="BA12" s="2"/>
       <c r="BB12" s="2"/>
@@ -9301,13 +9314,13 @@
     </row>
     <row r="13" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>24</v>
@@ -9322,19 +9335,19 @@
         <v>108</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I13" s="3">
         <v>4</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="K13" s="44" t="s">
         <v>24</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="M13" s="44" t="s">
         <v>24</v>
@@ -9346,10 +9359,10 @@
         <v>112</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>110</v>
@@ -9369,7 +9382,7 @@
         <v>24</v>
       </c>
       <c r="Y13" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z13" s="23">
         <v>6</v>
@@ -9378,7 +9391,7 @@
         <v>9</v>
       </c>
       <c r="AB13" s="23" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AC13" s="23">
         <v>1.6</v>
@@ -9387,28 +9400,28 @@
         <v>0.36299999999999999</v>
       </c>
       <c r="AE13" s="23" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AF13" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG13" s="23" t="s">
         <v>620</v>
       </c>
-      <c r="AG13" s="23" t="s">
-        <v>621</v>
-      </c>
       <c r="AH13" s="27" t="s">
+        <v>828</v>
+      </c>
+      <c r="AI13" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="AJ13" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="AK13" s="27" t="s">
         <v>829</v>
       </c>
-      <c r="AI13" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="AJ13" s="23" t="s">
-        <v>621</v>
-      </c>
-      <c r="AK13" s="27" t="s">
-        <v>830</v>
-      </c>
       <c r="AL13" s="23" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AM13" s="23"/>
       <c r="AN13" s="27"/>
@@ -9464,13 +9477,13 @@
     </row>
     <row r="14" spans="1:89" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>432</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D14" s="40" t="s">
         <v>24</v>
@@ -9485,7 +9498,7 @@
         <v>433</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>434</v>
@@ -9497,7 +9510,7 @@
         <v>44</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="M14" s="45" t="s">
         <v>24</v>
@@ -9509,10 +9522,10 @@
         <v>435</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="R14" s="9" t="s">
         <v>436</v>
@@ -9522,7 +9535,7 @@
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="40" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="V14" s="9" t="s">
         <v>439</v>
@@ -9561,7 +9574,7 @@
       <c r="AX14" s="4"/>
       <c r="AY14" s="2"/>
       <c r="AZ14" s="39" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="BA14" s="17"/>
       <c r="BB14" s="17"/>
@@ -9603,13 +9616,13 @@
     </row>
     <row r="15" spans="1:89" s="6" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>382</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>24</v>
@@ -9624,19 +9637,19 @@
         <v>128</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I15" s="6">
         <v>2</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="K15" s="42" t="s">
         <v>24</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="M15" s="42" t="s">
         <v>24</v>
@@ -9648,10 +9661,10 @@
         <v>385</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="R15" s="6" t="s">
         <v>383</v>
@@ -9669,7 +9682,7 @@
         <v>24</v>
       </c>
       <c r="Y15" s="13" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Z15" s="13">
         <v>1</v>
@@ -9678,7 +9691,7 @@
         <v>2</v>
       </c>
       <c r="AB15" s="13" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AC15" s="13">
         <v>3.2</v>
@@ -9687,46 +9700,46 @@
         <v>3.2</v>
       </c>
       <c r="AE15" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="AF15" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG15" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="AF15" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG15" s="13" t="s">
+      <c r="AH15" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="AH15" s="25" t="s">
+      <c r="AI15" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="AJ15" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="AK15" s="25" t="s">
+        <v>654</v>
+      </c>
+      <c r="AL15" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="AM15" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN15" s="25" t="s">
         <v>655</v>
       </c>
-      <c r="AI15" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="AJ15" s="13" t="s">
-        <v>654</v>
-      </c>
-      <c r="AK15" s="25" t="s">
+      <c r="AO15" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="AP15" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="AQ15" s="25" t="s">
         <v>655</v>
       </c>
-      <c r="AL15" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="AM15" s="13" t="s">
-        <v>640</v>
-      </c>
-      <c r="AN15" s="25" t="s">
-        <v>656</v>
-      </c>
-      <c r="AO15" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="AP15" s="13" t="s">
-        <v>640</v>
-      </c>
-      <c r="AQ15" s="25" t="s">
-        <v>656</v>
-      </c>
       <c r="AR15" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AS15" s="13"/>
       <c r="AT15" s="13"/>
@@ -9736,11 +9749,11 @@
       <c r="AX15" s="13"/>
       <c r="AY15" s="17"/>
       <c r="AZ15" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="BA15" s="2"/>
       <c r="BB15" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="BC15" s="17"/>
       <c r="BD15" s="17"/>
@@ -9780,13 +9793,13 @@
     </row>
     <row r="16" spans="1:89" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>166</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>24</v>
@@ -9801,19 +9814,19 @@
         <v>168</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I16" s="9">
         <v>1</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K16" s="45" t="s">
         <v>24</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="M16" s="45" t="s">
         <v>24</v>
@@ -9822,13 +9835,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="R16" s="9" t="s">
         <v>173</v>
@@ -9846,7 +9859,7 @@
         <v>24</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Z16" s="4">
         <v>33</v>
@@ -9855,7 +9868,7 @@
         <v>65</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AC16" s="4">
         <v>2.6</v>
@@ -9864,55 +9877,55 @@
         <v>1.175</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG16" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AH16" s="28" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AI16" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AJ16" s="4"/>
       <c r="AK16" s="28"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AN16" s="28" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AO16" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="28"/>
       <c r="AR16" s="4"/>
       <c r="AS16" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="AT16" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="AT16" s="4" t="s">
-        <v>689</v>
-      </c>
       <c r="AU16" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AV16" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AW16" s="4"/>
       <c r="AX16" s="4"/>
       <c r="AY16" s="2"/>
       <c r="AZ16" t="s">
+        <v>1032</v>
+      </c>
+      <c r="BA16" s="2" t="s">
         <v>1033</v>
-      </c>
-      <c r="BA16" s="2" t="s">
-        <v>1034</v>
       </c>
       <c r="BB16" s="2" t="s">
         <v>171</v>
@@ -9955,13 +9968,13 @@
     </row>
     <row r="17" spans="1:89" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>24</v>
@@ -9976,19 +9989,19 @@
         <v>168</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I17" s="9">
         <v>1</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="K17" s="45" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="M17" s="45" t="s">
         <v>24</v>
@@ -10000,10 +10013,10 @@
         <v>175</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="R17" s="9" t="s">
         <v>170</v>
@@ -10021,7 +10034,7 @@
         <v>24</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z17" s="4">
         <v>12</v>
@@ -10030,7 +10043,7 @@
         <v>28</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AC17" s="4">
         <v>2.2000000000000002</v>
@@ -10039,40 +10052,40 @@
         <v>1.143</v>
       </c>
       <c r="AE17" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="AF17" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG17" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="AH17" s="28" t="s">
         <v>728</v>
       </c>
-      <c r="AF17" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG17" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="AH17" s="28" t="s">
-        <v>729</v>
-      </c>
       <c r="AI17" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AJ17" s="4"/>
       <c r="AK17" s="28"/>
       <c r="AL17" s="4"/>
       <c r="AM17" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="AN17" s="28" t="s">
         <v>730</v>
       </c>
-      <c r="AN17" s="28" t="s">
-        <v>731</v>
-      </c>
       <c r="AO17" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AP17" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AQ17" s="28" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AR17" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AS17" s="4"/>
       <c r="AT17" s="4"/>
@@ -10082,7 +10095,7 @@
       <c r="AX17" s="4"/>
       <c r="AY17" s="2"/>
       <c r="AZ17" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="BA17" s="2"/>
       <c r="BB17" s="2"/>
@@ -10124,13 +10137,13 @@
     </row>
     <row r="18" spans="1:89" s="9" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>362</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>24</v>
@@ -10145,7 +10158,7 @@
         <v>128</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I18" s="13">
         <v>2</v>
@@ -10154,10 +10167,10 @@
         <v>171</v>
       </c>
       <c r="K18" s="46" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="M18" s="46" t="s">
         <v>24</v>
@@ -10169,10 +10182,10 @@
         <v>365</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="Q18" s="13" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="R18" s="13" t="s">
         <v>364</v>
@@ -10192,14 +10205,14 @@
         <v>44</v>
       </c>
       <c r="Y18" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z18" s="13"/>
       <c r="AA18" s="13">
         <v>12</v>
       </c>
       <c r="AB18" s="13" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AC18" s="13">
         <v>1.6</v>
@@ -10208,28 +10221,28 @@
         <v>1.6759999999999999</v>
       </c>
       <c r="AE18" s="13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AF18" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG18" s="13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AH18" s="25" t="s">
+        <v>853</v>
+      </c>
+      <c r="AI18" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="AJ18" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="AK18" s="25" t="s">
         <v>854</v>
       </c>
-      <c r="AI18" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="AJ18" s="13" t="s">
-        <v>659</v>
-      </c>
-      <c r="AK18" s="25" t="s">
-        <v>855</v>
-      </c>
       <c r="AL18" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AM18" s="13"/>
       <c r="AN18" s="25"/>
@@ -10245,7 +10258,7 @@
       <c r="AX18" s="13"/>
       <c r="AY18" s="2"/>
       <c r="AZ18" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="BA18" s="2"/>
       <c r="BB18" s="2"/>
@@ -10287,13 +10300,13 @@
     </row>
     <row r="19" spans="1:89" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>357</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>24</v>
@@ -10308,7 +10321,7 @@
         <v>358</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I19" s="9">
         <v>1</v>
@@ -10320,7 +10333,7 @@
         <v>44</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="M19" s="45" t="s">
         <v>44</v>
@@ -10349,7 +10362,7 @@
         <v>24</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z19" s="4">
         <v>3</v>
@@ -10358,7 +10371,7 @@
         <v>9</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AC19" s="4">
         <v>1.7</v>
@@ -10367,68 +10380,68 @@
         <v>1.8640000000000001</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG19" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AH19" s="28" t="s">
+        <v>712</v>
+      </c>
+      <c r="AI19" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="AJ19" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="AK19" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="AL19" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="AM19" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="AN19" s="28" t="s">
         <v>713</v>
       </c>
-      <c r="AI19" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="AJ19" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="AK19" s="28" t="s">
+      <c r="AO19" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="AP19" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="AQ19" s="28" t="s">
         <v>716</v>
       </c>
-      <c r="AL19" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="AM19" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="AN19" s="28" t="s">
+      <c r="AR19" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="AS19" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="AT19" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="AO19" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="AP19" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="AQ19" s="28" t="s">
+      <c r="AU19" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="AV19" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="AW19" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="AR19" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="AS19" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="AT19" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="AU19" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="AV19" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="AW19" s="4" t="s">
-        <v>718</v>
-      </c>
       <c r="AX19" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AY19" s="2"/>
       <c r="AZ19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="BA19" s="2"/>
       <c r="BB19" s="2"/>
@@ -10470,13 +10483,13 @@
     </row>
     <row r="20" spans="1:89" s="6" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>24</v>
@@ -10491,19 +10504,19 @@
         <v>128</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I20" s="6">
         <v>2</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K20" s="42" t="s">
         <v>44</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M20" s="42" t="s">
         <v>24</v>
@@ -10512,29 +10525,29 @@
         <v>1</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="X20" s="18" t="s">
         <v>44</v>
       </c>
       <c r="Y20" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z20" s="13"/>
       <c r="AA20" s="13">
         <v>340</v>
       </c>
       <c r="AB20" s="13" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AC20" s="13"/>
       <c r="AD20" s="13"/>
@@ -10560,13 +10573,13 @@
       <c r="AX20" s="13"/>
       <c r="AY20" s="2"/>
       <c r="AZ20" s="39" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="BA20" s="2" t="s">
         <v>165</v>
       </c>
       <c r="BB20" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="BC20" s="2"/>
       <c r="BD20" s="2"/>
@@ -10606,13 +10619,13 @@
     </row>
     <row r="21" spans="1:89" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>412</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>24</v>
@@ -10627,7 +10640,7 @@
         <v>411</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I21" s="13">
         <v>2</v>
@@ -10639,7 +10652,7 @@
         <v>44</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M21" s="46" t="s">
         <v>24</v>
@@ -10651,10 +10664,10 @@
         <v>414</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="R21" s="13" t="s">
         <v>413</v>
@@ -10672,14 +10685,14 @@
         <v>44</v>
       </c>
       <c r="Y21" s="13" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Z21" s="13"/>
       <c r="AA21" s="13">
         <v>16</v>
       </c>
       <c r="AB21" s="13" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AC21" s="13"/>
       <c r="AD21" s="13"/>
@@ -10705,13 +10718,13 @@
       <c r="AX21" s="13"/>
       <c r="AY21" s="2"/>
       <c r="AZ21" s="39" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="BA21" s="2" t="s">
         <v>165</v>
       </c>
       <c r="BB21" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="BC21" s="2"/>
       <c r="BD21" s="2"/>
@@ -10749,15 +10762,15 @@
       <c r="CJ21" s="2"/>
       <c r="CK21" s="2"/>
     </row>
-    <row r="22" spans="1:89" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>24</v>
@@ -10771,30 +10784,47 @@
       <c r="G22" s="6" t="s">
         <v>128</v>
       </c>
+      <c r="H22" s="6" t="s">
+        <v>1084</v>
+      </c>
       <c r="I22" s="6">
         <v>2</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K22" s="42">
-        <v>0</v>
-      </c>
-      <c r="L22" s="6">
+        <v>1127</v>
+      </c>
+      <c r="K22" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="M22" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="6">
         <v>1</v>
       </c>
-      <c r="M22" s="42"/>
       <c r="O22" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="S22" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="S22" s="6" t="s">
-        <v>478</v>
       </c>
       <c r="X22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="Y22" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z22" s="13">
         <v>75</v>
@@ -10803,7 +10833,7 @@
         <v>179</v>
       </c>
       <c r="AB22" s="13" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AC22" s="13">
         <v>5</v>
@@ -10812,28 +10842,28 @@
         <v>1.476</v>
       </c>
       <c r="AE22" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="AF22" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG22" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="AH22" s="25" t="s">
         <v>636</v>
       </c>
-      <c r="AF22" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG22" s="13" t="s">
-        <v>636</v>
-      </c>
-      <c r="AH22" s="25" t="s">
-        <v>637</v>
-      </c>
       <c r="AI22" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AJ22" s="13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK22" s="25" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AL22" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AM22" s="13"/>
       <c r="AN22" s="25"/>
@@ -10889,13 +10919,13 @@
     </row>
     <row r="23" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>275</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>24</v>
@@ -10909,26 +10939,36 @@
       <c r="G23" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="12" t="s">
+        <v>1108</v>
+      </c>
       <c r="I23" s="12">
         <v>4</v>
       </c>
       <c r="J23" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="K23" s="47">
+      <c r="K23" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M23" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="12">
         <v>0</v>
       </c>
-      <c r="L23" s="12">
-        <v>2</v>
-      </c>
-      <c r="M23" s="47"/>
-      <c r="N23" s="12"/>
       <c r="O23" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
+      <c r="P23" s="12" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>1087</v>
+      </c>
       <c r="R23" s="12" t="s">
         <v>278</v>
       </c>
@@ -10943,7 +10983,7 @@
         <v>24</v>
       </c>
       <c r="Y23" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Z23" s="22">
         <v>19</v>
@@ -10952,7 +10992,7 @@
         <v>55</v>
       </c>
       <c r="AB23" s="22" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AC23" s="22">
         <v>2.4</v>
@@ -10961,46 +11001,46 @@
         <v>1.5469999999999999</v>
       </c>
       <c r="AE23" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="AF23" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG23" s="22" t="s">
+        <v>697</v>
+      </c>
+      <c r="AH23" s="29" t="s">
         <v>768</v>
       </c>
-      <c r="AF23" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG23" s="22" t="s">
-        <v>698</v>
-      </c>
-      <c r="AH23" s="29" t="s">
-        <v>769</v>
-      </c>
       <c r="AI23" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AJ23" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AK23" s="29" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AL23" s="22" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AM23" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AN23" s="29" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AO23" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AP23" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AQ23" s="29" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AR23" s="22" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AS23" s="22"/>
       <c r="AT23" s="22"/>
@@ -11050,13 +11090,13 @@
     </row>
     <row r="24" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>339</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>24</v>
@@ -11070,26 +11110,36 @@
       <c r="G24" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="12" t="s">
+        <v>1108</v>
+      </c>
       <c r="I24" s="12">
         <v>4</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="K24" s="47">
+      <c r="K24" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M24" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="12">
         <v>0</v>
       </c>
-      <c r="L24" s="12">
-        <v>2</v>
-      </c>
-      <c r="M24" s="47"/>
-      <c r="N24" s="12"/>
       <c r="O24" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
+      <c r="P24" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>1087</v>
+      </c>
       <c r="R24" s="12" t="s">
         <v>342</v>
       </c>
@@ -11106,7 +11156,7 @@
         <v>24</v>
       </c>
       <c r="Y24" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Z24" s="22">
         <v>20</v>
@@ -11115,7 +11165,7 @@
         <v>47</v>
       </c>
       <c r="AB24" s="22" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AC24" s="22">
         <v>2.2000000000000002</v>
@@ -11124,46 +11174,46 @@
         <v>2.0089999999999999</v>
       </c>
       <c r="AE24" s="22" t="s">
+        <v>727</v>
+      </c>
+      <c r="AF24" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG24" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="AH24" s="29" t="s">
         <v>728</v>
       </c>
-      <c r="AF24" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG24" s="22" t="s">
+      <c r="AI24" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="AJ24" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="AK24" s="29" t="s">
         <v>663</v>
       </c>
-      <c r="AH24" s="29" t="s">
+      <c r="AL24" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="AM24" s="22" t="s">
         <v>729</v>
       </c>
-      <c r="AI24" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="AJ24" s="22" t="s">
-        <v>663</v>
-      </c>
-      <c r="AK24" s="29" t="s">
-        <v>664</v>
-      </c>
-      <c r="AL24" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="AM24" s="22" t="s">
+      <c r="AN24" s="29" t="s">
         <v>730</v>
       </c>
-      <c r="AN24" s="29" t="s">
+      <c r="AO24" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="AP24" s="22" t="s">
+        <v>729</v>
+      </c>
+      <c r="AQ24" s="29" t="s">
         <v>731</v>
       </c>
-      <c r="AO24" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="AP24" s="22" t="s">
-        <v>730</v>
-      </c>
-      <c r="AQ24" s="29" t="s">
-        <v>732</v>
-      </c>
       <c r="AR24" s="22" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AS24" s="22"/>
       <c r="AT24" s="22"/>
@@ -11173,7 +11223,7 @@
       <c r="AX24" s="22"/>
       <c r="AY24" s="2"/>
       <c r="AZ24" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="BA24" s="2"/>
       <c r="BB24" s="2" t="s">
@@ -11217,13 +11267,13 @@
     </row>
     <row r="25" spans="1:89" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>334</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>24</v>
@@ -11237,22 +11287,36 @@
       <c r="G25" s="6" t="s">
         <v>128</v>
       </c>
+      <c r="H25" s="6" t="s">
+        <v>1111</v>
+      </c>
       <c r="I25" s="6">
         <v>2</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="K25" s="42">
+        <v>341</v>
+      </c>
+      <c r="K25" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="M25" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="6">
         <v>0</v>
       </c>
-      <c r="L25" s="6">
-        <v>1</v>
-      </c>
-      <c r="M25" s="42"/>
       <c r="O25" s="6" t="s">
         <v>335</v>
       </c>
+      <c r="P25" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>1087</v>
+      </c>
       <c r="R25" s="6" t="s">
         <v>336</v>
       </c>
@@ -11266,7 +11330,7 @@
         <v>24</v>
       </c>
       <c r="Y25" s="13" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Z25" s="13">
         <v>14</v>
@@ -11275,7 +11339,7 @@
         <v>20</v>
       </c>
       <c r="AB25" s="13" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AC25" s="13">
         <v>2.5</v>
@@ -11284,28 +11348,28 @@
         <v>2.5</v>
       </c>
       <c r="AE25" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="AF25" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG25" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="AH25" s="25" t="s">
         <v>659</v>
       </c>
-      <c r="AF25" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG25" s="13" t="s">
+      <c r="AI25" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="AJ25" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="AK25" s="25" t="s">
         <v>659</v>
       </c>
-      <c r="AH25" s="25" t="s">
-        <v>660</v>
-      </c>
-      <c r="AI25" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="AJ25" s="13" t="s">
-        <v>659</v>
-      </c>
-      <c r="AK25" s="25" t="s">
-        <v>660</v>
-      </c>
       <c r="AL25" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AM25" s="13"/>
       <c r="AN25" s="25"/>
@@ -11321,7 +11385,7 @@
       <c r="AX25" s="13"/>
       <c r="AY25" s="2"/>
       <c r="AZ25" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="BA25" s="2"/>
       <c r="BB25" s="2"/>
@@ -11363,13 +11427,13 @@
     </row>
     <row r="26" spans="1:89" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>444</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>24</v>
@@ -11383,36 +11447,46 @@
       <c r="G26" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>1084</v>
+      </c>
       <c r="I26" s="6">
         <v>2</v>
       </c>
       <c r="J26" s="6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K26" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="M26" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="K26" s="42">
-        <v>1</v>
-      </c>
-      <c r="L26" s="6">
-        <v>1</v>
-      </c>
-      <c r="M26" s="42"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6" t="s">
+      <c r="P26" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="R26" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6" t="s">
-        <v>447</v>
-      </c>
       <c r="S26" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="W26" s="6" t="s">
         <v>437</v>
@@ -11421,7 +11495,7 @@
         <v>24</v>
       </c>
       <c r="Y26" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Z26" s="13">
         <v>26</v>
@@ -11430,53 +11504,53 @@
         <v>47</v>
       </c>
       <c r="AB26" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AC26" s="13">
         <v>9.9</v>
       </c>
       <c r="AD26" s="13"/>
       <c r="AE26" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="AF26" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="AF26" s="13" t="s">
+      <c r="AG26" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="AG26" s="13" t="s">
+      <c r="AH26" s="25" t="s">
         <v>621</v>
       </c>
-      <c r="AH26" s="25" t="s">
+      <c r="AI26" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="AJ26" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="AK26" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="AL26" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="AM26" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="AI26" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="AJ26" s="13" t="s">
-        <v>621</v>
-      </c>
-      <c r="AK26" s="25" t="s">
+      <c r="AN26" s="25" t="s">
+        <v>623</v>
+      </c>
+      <c r="AO26" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="AP26" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="AQ26" s="25" t="s">
         <v>719</v>
       </c>
-      <c r="AL26" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="AM26" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN26" s="25" t="s">
-        <v>624</v>
-      </c>
-      <c r="AO26" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="AP26" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="AQ26" s="25" t="s">
-        <v>720</v>
-      </c>
       <c r="AR26" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AS26" s="13"/>
       <c r="AT26" s="13"/>
@@ -11486,11 +11560,11 @@
       <c r="AX26" s="13"/>
       <c r="AY26" s="2"/>
       <c r="AZ26" s="39" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="BA26" s="2"/>
       <c r="BB26" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="BC26" s="2"/>
       <c r="BD26" s="2"/>
@@ -11530,13 +11604,13 @@
     </row>
     <row r="27" spans="1:89" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>328</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>24</v>
@@ -11579,7 +11653,7 @@
         <v>24</v>
       </c>
       <c r="Y27" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z27" s="4">
         <v>35</v>
@@ -11588,7 +11662,7 @@
         <v>75</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AC27" s="4">
         <v>4.7</v>
@@ -11597,46 +11671,46 @@
         <v>3.7679999999999998</v>
       </c>
       <c r="AE27" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AF27" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG27" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="AH27" s="28" t="s">
         <v>788</v>
       </c>
-      <c r="AH27" s="28" t="s">
+      <c r="AI27" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="AJ27" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="AK27" s="28" t="s">
+        <v>790</v>
+      </c>
+      <c r="AL27" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="AM27" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="AI27" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="AJ27" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="AK27" s="28" t="s">
+      <c r="AN27" s="28" t="s">
+        <v>798</v>
+      </c>
+      <c r="AO27" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="AP27" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="AQ27" s="28" t="s">
         <v>791</v>
       </c>
-      <c r="AL27" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="AM27" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="AN27" s="28" t="s">
-        <v>799</v>
-      </c>
-      <c r="AO27" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="AP27" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="AQ27" s="28" t="s">
-        <v>792</v>
-      </c>
       <c r="AR27" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AS27" s="4"/>
       <c r="AT27" s="4"/>
@@ -11646,7 +11720,7 @@
       <c r="AX27" s="4"/>
       <c r="AY27" s="2"/>
       <c r="AZ27" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="BA27" s="2"/>
       <c r="BB27" s="2"/>
@@ -11688,13 +11762,13 @@
     </row>
     <row r="28" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>178</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>24</v>
@@ -11764,10 +11838,10 @@
       <c r="AX28" s="13"/>
       <c r="AY28" s="2"/>
       <c r="AZ28" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="BA28" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BB28" s="2"/>
       <c r="BC28" s="2"/>
@@ -11808,13 +11882,13 @@
     </row>
     <row r="29" spans="1:89" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>183</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>24</v>
@@ -11857,7 +11931,7 @@
         <v>24</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="Z29" s="13">
         <v>8</v>
@@ -11866,7 +11940,7 @@
         <v>12</v>
       </c>
       <c r="AB29" s="13" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AC29" s="13">
         <v>3.7</v>
@@ -11875,46 +11949,46 @@
         <v>0.83699999999999997</v>
       </c>
       <c r="AE29" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AF29" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG29" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AH29" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="AI29" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="AJ29" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="AK29" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="AL29" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="AM29" s="13" t="s">
         <v>813</v>
       </c>
-      <c r="AI29" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="AJ29" s="13" t="s">
-        <v>647</v>
-      </c>
-      <c r="AK29" s="25" t="s">
+      <c r="AN29" s="25" t="s">
+        <v>814</v>
+      </c>
+      <c r="AO29" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="AP29" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="AQ29" s="25" t="s">
         <v>816</v>
       </c>
-      <c r="AL29" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="AM29" s="13" t="s">
-        <v>814</v>
-      </c>
-      <c r="AN29" s="25" t="s">
-        <v>815</v>
-      </c>
-      <c r="AO29" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="AP29" s="13" t="s">
-        <v>814</v>
-      </c>
-      <c r="AQ29" s="25" t="s">
-        <v>817</v>
-      </c>
       <c r="AR29" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AS29" s="13"/>
       <c r="AT29" s="13"/>
@@ -11924,7 +11998,7 @@
       <c r="AX29" s="13"/>
       <c r="AY29" s="2"/>
       <c r="AZ29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="BA29" s="2"/>
       <c r="BB29" s="2" t="s">
@@ -11968,13 +12042,13 @@
     </row>
     <row r="30" spans="1:89" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>24</v>
@@ -12002,20 +12076,20 @@
       <c r="M30" s="42"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="W30" s="6" t="s">
         <v>437</v>
@@ -12024,7 +12098,7 @@
         <v>24</v>
       </c>
       <c r="Y30" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z30" s="13">
         <v>4</v>
@@ -12033,38 +12107,38 @@
         <v>4</v>
       </c>
       <c r="AB30" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AC30" s="13">
         <v>9.9</v>
       </c>
       <c r="AD30" s="13"/>
       <c r="AE30" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="AF30" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="AF30" s="13" t="s">
+      <c r="AG30" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="AG30" s="13" t="s">
+      <c r="AH30" s="25" t="s">
         <v>621</v>
       </c>
-      <c r="AH30" s="25" t="s">
-        <v>622</v>
-      </c>
       <c r="AI30" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AJ30" s="13"/>
       <c r="AK30" s="25"/>
       <c r="AL30" s="13"/>
       <c r="AM30" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="AN30" s="25" t="s">
         <v>623</v>
       </c>
-      <c r="AN30" s="25" t="s">
-        <v>624</v>
-      </c>
       <c r="AO30" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="25"/>
@@ -12076,10 +12150,10 @@
       <c r="AW30" s="13"/>
       <c r="AX30" s="13"/>
       <c r="AY30" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AZ30" s="39" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="BA30" s="2"/>
       <c r="BB30" s="2"/>
@@ -12121,13 +12195,13 @@
     </row>
     <row r="31" spans="1:89" s="9" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>307</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>24</v>
@@ -12177,7 +12251,7 @@
         <v>24</v>
       </c>
       <c r="Y31" s="22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z31" s="22">
         <v>1</v>
@@ -12186,7 +12260,7 @@
         <v>1</v>
       </c>
       <c r="AB31" s="22" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AC31" s="22">
         <v>1.8</v>
@@ -12195,68 +12269,68 @@
         <v>1.8</v>
       </c>
       <c r="AE31" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="AF31" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG31" s="22" t="s">
         <v>662</v>
       </c>
-      <c r="AF31" s="22" t="s">
+      <c r="AH31" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="AI31" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="AJ31" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="AK31" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="AL31" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="AM31" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="AN31" s="29" t="s">
+        <v>665</v>
+      </c>
+      <c r="AO31" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="AP31" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="AQ31" s="29" t="s">
+        <v>665</v>
+      </c>
+      <c r="AR31" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="AS31" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="AG31" s="22" t="s">
-        <v>663</v>
-      </c>
-      <c r="AH31" s="29" t="s">
-        <v>664</v>
-      </c>
-      <c r="AI31" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="AJ31" s="22" t="s">
-        <v>663</v>
-      </c>
-      <c r="AK31" s="29" t="s">
-        <v>664</v>
-      </c>
-      <c r="AL31" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="AM31" s="22" t="s">
-        <v>665</v>
-      </c>
-      <c r="AN31" s="29" t="s">
+      <c r="AT31" s="22" t="s">
         <v>666</v>
       </c>
-      <c r="AO31" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="AP31" s="22" t="s">
-        <v>665</v>
-      </c>
-      <c r="AQ31" s="29" t="s">
+      <c r="AU31" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="AV31" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="AW31" s="22" t="s">
         <v>666</v>
       </c>
-      <c r="AR31" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="AS31" s="22" t="s">
-        <v>621</v>
-      </c>
-      <c r="AT31" s="22" t="s">
-        <v>667</v>
-      </c>
-      <c r="AU31" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="AV31" s="22" t="s">
-        <v>621</v>
-      </c>
-      <c r="AW31" s="22" t="s">
-        <v>667</v>
-      </c>
       <c r="AX31" s="22" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AY31" s="2"/>
       <c r="AZ31" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="BA31" s="2"/>
       <c r="BB31" s="2"/>
@@ -12298,13 +12372,13 @@
     </row>
     <row r="32" spans="1:89" s="8" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>321</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>24</v>
@@ -12356,7 +12430,7 @@
         <v>24</v>
       </c>
       <c r="Y32" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z32" s="4">
         <v>7</v>
@@ -12365,7 +12439,7 @@
         <v>13</v>
       </c>
       <c r="AB32" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AC32" s="4">
         <v>1.2</v>
@@ -12374,72 +12448,72 @@
         <v>0.61699999999999999</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AF32" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG32" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AH32" s="28" t="s">
+        <v>734</v>
+      </c>
+      <c r="AI32" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="AJ32" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="AK32" s="28" t="s">
+        <v>804</v>
+      </c>
+      <c r="AL32" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="AM32" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="AN32" s="28" t="s">
         <v>735</v>
       </c>
-      <c r="AI32" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="AJ32" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="AK32" s="28" t="s">
+      <c r="AO32" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="AP32" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="AQ32" s="28" t="s">
         <v>805</v>
       </c>
-      <c r="AL32" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="AM32" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="AN32" s="28" t="s">
+      <c r="AR32" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="AS32" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="AT32" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="AO32" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="AP32" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="AQ32" s="28" t="s">
+      <c r="AU32" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="AV32" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="AW32" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="AR32" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="AS32" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="AT32" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="AU32" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="AV32" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="AW32" s="4" t="s">
-        <v>807</v>
-      </c>
       <c r="AX32" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AY32" s="2"/>
       <c r="AZ32" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="BA32" s="2"/>
       <c r="BB32" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="BC32" s="2"/>
       <c r="BD32" s="2"/>
@@ -12479,13 +12553,13 @@
     </row>
     <row r="33" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>24</v>
@@ -12497,14 +12571,14 @@
         <v>167</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9">
         <v>1</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K33" s="45">
         <v>0</v>
@@ -12515,53 +12589,53 @@
       <c r="M33" s="45"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="W33" s="9"/>
       <c r="X33" s="20" t="s">
         <v>44</v>
       </c>
       <c r="Y33" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4">
         <v>9</v>
       </c>
       <c r="AB33" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AC33" s="4">
         <v>0.3</v>
       </c>
       <c r="AD33" s="4"/>
       <c r="AE33" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AF33" s="20" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AG33" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AH33" s="28" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AI33" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AJ33" s="4"/>
       <c r="AK33" s="28"/>
@@ -12580,11 +12654,11 @@
       <c r="AX33" s="4"/>
       <c r="AY33" s="2"/>
       <c r="AZ33" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="BA33" s="2"/>
       <c r="BB33" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="BC33" s="2"/>
       <c r="BD33" s="2"/>
@@ -12624,13 +12698,13 @@
     </row>
     <row r="34" spans="1:89" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>24</v>
@@ -12668,7 +12742,7 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
@@ -12676,7 +12750,7 @@
         <v>24</v>
       </c>
       <c r="Y34" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z34" s="4">
         <v>11</v>
@@ -12685,7 +12759,7 @@
         <v>13</v>
       </c>
       <c r="AB34" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AC34" s="4">
         <v>1.2</v>
@@ -12694,72 +12768,72 @@
         <v>1.3460000000000001</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AF34" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG34" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AH34" s="28" t="s">
+        <v>734</v>
+      </c>
+      <c r="AI34" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="AJ34" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="AK34" s="28" t="s">
+        <v>737</v>
+      </c>
+      <c r="AL34" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="AM34" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="AN34" s="28" t="s">
         <v>735</v>
       </c>
-      <c r="AI34" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="AJ34" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="AK34" s="28" t="s">
+      <c r="AO34" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="AP34" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="AQ34" s="28" t="s">
         <v>738</v>
       </c>
-      <c r="AL34" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="AM34" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="AN34" s="28" t="s">
+      <c r="AR34" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="AS34" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="AT34" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="AO34" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="AP34" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="AQ34" s="28" t="s">
+      <c r="AU34" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="AV34" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="AW34" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="AR34" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="AS34" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="AT34" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="AU34" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="AV34" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="AW34" s="4" t="s">
-        <v>740</v>
-      </c>
       <c r="AX34" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AY34" s="2"/>
       <c r="AZ34" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="BA34" s="2"/>
       <c r="BB34" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="BC34" s="2"/>
       <c r="BD34" s="2"/>
@@ -12799,13 +12873,13 @@
     </row>
     <row r="35" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>314</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>24</v>
@@ -12851,7 +12925,7 @@
         <v>24</v>
       </c>
       <c r="Y35" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z35" s="13">
         <v>1</v>
@@ -12860,26 +12934,26 @@
         <v>4</v>
       </c>
       <c r="AB35" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AC35" s="13">
         <v>1.5</v>
       </c>
       <c r="AD35" s="13"/>
       <c r="AE35" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="AF35" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG35" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="AH35" s="25" t="s">
         <v>628</v>
       </c>
-      <c r="AF35" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG35" s="13" t="s">
-        <v>628</v>
-      </c>
-      <c r="AH35" s="25" t="s">
+      <c r="AI35" s="13" t="s">
         <v>629</v>
-      </c>
-      <c r="AI35" s="13" t="s">
-        <v>630</v>
       </c>
       <c r="AJ35" s="13"/>
       <c r="AK35" s="25"/>
@@ -12900,7 +12974,7 @@
         <v>318</v>
       </c>
       <c r="AZ35" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="BA35" s="2"/>
       <c r="BB35" s="2"/>
@@ -12942,13 +13016,13 @@
     </row>
     <row r="36" spans="1:89" s="6" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>154</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>24</v>
@@ -12994,7 +13068,7 @@
         <v>24</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z36" s="13">
         <v>26</v>
@@ -13003,7 +13077,7 @@
         <v>64</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AC36" s="13">
         <v>3.1</v>
@@ -13012,72 +13086,72 @@
         <v>2.65</v>
       </c>
       <c r="AE36" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="AF36" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG36" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="AH36" s="25" t="s">
         <v>742</v>
       </c>
-      <c r="AF36" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG36" s="13" t="s">
-        <v>644</v>
-      </c>
-      <c r="AH36" s="25" t="s">
+      <c r="AI36" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="AJ36" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="AK36" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="AL36" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="AM36" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN36" s="25" t="s">
         <v>743</v>
       </c>
-      <c r="AI36" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="AJ36" s="13" t="s">
-        <v>644</v>
-      </c>
-      <c r="AK36" s="25" t="s">
+      <c r="AO36" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="AP36" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="AQ36" s="25" t="s">
         <v>746</v>
       </c>
-      <c r="AL36" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="AM36" s="13" t="s">
-        <v>640</v>
-      </c>
-      <c r="AN36" s="25" t="s">
+      <c r="AR36" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="AS36" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="AT36" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="AO36" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="AP36" s="13" t="s">
-        <v>640</v>
-      </c>
-      <c r="AQ36" s="25" t="s">
+      <c r="AU36" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="AV36" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="AW36" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="AR36" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="AS36" s="13" t="s">
-        <v>628</v>
-      </c>
-      <c r="AT36" s="13" t="s">
-        <v>745</v>
-      </c>
-      <c r="AU36" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="AV36" s="13" t="s">
-        <v>628</v>
-      </c>
-      <c r="AW36" s="13" t="s">
-        <v>748</v>
-      </c>
       <c r="AX36" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AY36" s="2"/>
       <c r="AZ36" s="39" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BA36" s="2"/>
       <c r="BB36" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="BC36" s="2"/>
       <c r="BD36" s="2"/>
@@ -13117,13 +13191,13 @@
     </row>
     <row r="37" spans="1:89" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>440</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>24</v>
@@ -13173,7 +13247,7 @@
         <v>24</v>
       </c>
       <c r="Y37" s="13" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Z37" s="13">
         <v>45</v>
@@ -13182,7 +13256,7 @@
         <v>116</v>
       </c>
       <c r="AB37" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AC37" s="13">
         <v>9.9</v>
@@ -13191,46 +13265,46 @@
         <v>1.865</v>
       </c>
       <c r="AE37" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="AF37" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="AF37" s="13" t="s">
+      <c r="AG37" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="AH37" s="25" t="s">
+        <v>623</v>
+      </c>
+      <c r="AI37" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="AJ37" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="AK37" s="25" t="s">
+        <v>823</v>
+      </c>
+      <c r="AL37" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="AM37" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="AG37" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="AH37" s="25" t="s">
-        <v>624</v>
-      </c>
-      <c r="AI37" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="AJ37" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="AK37" s="25" t="s">
+      <c r="AN37" s="25" t="s">
+        <v>621</v>
+      </c>
+      <c r="AO37" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="AP37" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="AQ37" s="25" t="s">
         <v>824</v>
       </c>
-      <c r="AL37" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="AM37" s="13" t="s">
-        <v>621</v>
-      </c>
-      <c r="AN37" s="25" t="s">
-        <v>622</v>
-      </c>
-      <c r="AO37" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="AP37" s="13" t="s">
-        <v>621</v>
-      </c>
-      <c r="AQ37" s="25" t="s">
-        <v>825</v>
-      </c>
       <c r="AR37" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AS37" s="13"/>
       <c r="AT37" s="13"/>
@@ -13240,7 +13314,7 @@
       <c r="AX37" s="13"/>
       <c r="AY37" s="2"/>
       <c r="AZ37" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="BA37" s="2" t="s">
         <v>165</v>
@@ -13284,13 +13358,13 @@
     </row>
     <row r="38" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>300</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>24</v>
@@ -13333,7 +13407,7 @@
         <v>24</v>
       </c>
       <c r="Y38" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Z38" s="13">
         <v>3</v>
@@ -13342,38 +13416,38 @@
         <v>6</v>
       </c>
       <c r="AB38" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AC38" s="13">
         <v>9.9</v>
       </c>
       <c r="AD38" s="13"/>
       <c r="AE38" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="AF38" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="AF38" s="13" t="s">
+      <c r="AG38" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="AG38" s="13" t="s">
+      <c r="AH38" s="25" t="s">
         <v>621</v>
       </c>
-      <c r="AH38" s="25" t="s">
-        <v>622</v>
-      </c>
       <c r="AI38" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AJ38" s="13"/>
       <c r="AK38" s="25"/>
       <c r="AL38" s="13"/>
       <c r="AM38" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="AN38" s="25" t="s">
         <v>623</v>
       </c>
-      <c r="AN38" s="25" t="s">
-        <v>624</v>
-      </c>
       <c r="AO38" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AP38" s="13"/>
       <c r="AQ38" s="25"/>
@@ -13386,11 +13460,11 @@
       <c r="AX38" s="13"/>
       <c r="AY38" s="2"/>
       <c r="AZ38" s="39" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="BA38" s="2"/>
       <c r="BB38" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="BC38" s="2"/>
       <c r="BD38" s="2"/>
@@ -13430,13 +13504,13 @@
     </row>
     <row r="39" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>24</v>
@@ -13482,7 +13556,7 @@
         <v>24</v>
       </c>
       <c r="Y39" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z39" s="13">
         <v>72</v>
@@ -13491,7 +13565,7 @@
         <v>121</v>
       </c>
       <c r="AB39" s="13" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AC39" s="13">
         <v>11.7</v>
@@ -13500,28 +13574,28 @@
         <v>10.427</v>
       </c>
       <c r="AE39" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="AF39" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG39" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="AH39" s="25" t="s">
         <v>722</v>
       </c>
-      <c r="AF39" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG39" s="13" t="s">
+      <c r="AI39" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="AJ39" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="AK39" s="25" t="s">
         <v>722</v>
       </c>
-      <c r="AH39" s="25" t="s">
-        <v>723</v>
-      </c>
-      <c r="AI39" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="AJ39" s="13" t="s">
-        <v>722</v>
-      </c>
-      <c r="AK39" s="25" t="s">
-        <v>723</v>
-      </c>
       <c r="AL39" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AM39" s="13"/>
       <c r="AN39" s="25"/>
@@ -13537,10 +13611,10 @@
       <c r="AX39" s="13"/>
       <c r="AY39" s="2"/>
       <c r="AZ39" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="BA39" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="BB39" s="2"/>
       <c r="BC39" s="2"/>
@@ -13581,13 +13655,13 @@
     </row>
     <row r="40" spans="1:89" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>184</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>24</v>
@@ -13630,7 +13704,7 @@
         <v>24</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z40" s="4">
         <v>20</v>
@@ -13639,63 +13713,63 @@
         <v>51</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AC40" s="4">
         <v>2.6</v>
       </c>
       <c r="AD40" s="4"/>
       <c r="AE40" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AH40" s="28" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AJ40" s="4"/>
       <c r="AK40" s="28"/>
       <c r="AL40" s="4"/>
       <c r="AM40" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AN40" s="28" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AO40" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AP40" s="4"/>
       <c r="AQ40" s="28"/>
       <c r="AR40" s="4"/>
       <c r="AS40" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="AT40" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="AT40" s="4" t="s">
-        <v>689</v>
-      </c>
       <c r="AU40" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AV40" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AW40" s="4"/>
       <c r="AX40" s="4"/>
       <c r="AY40" s="2"/>
       <c r="AZ40" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BA40" s="2"/>
       <c r="BB40" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="BC40" s="2"/>
       <c r="BD40" s="2"/>
@@ -13735,13 +13809,13 @@
     </row>
     <row r="41" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>195</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>24</v>
@@ -13789,7 +13863,7 @@
         <v>44</v>
       </c>
       <c r="Y41" s="24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="Z41" s="24"/>
       <c r="AA41" s="24">
@@ -13820,7 +13894,7 @@
       <c r="AX41" s="24"/>
       <c r="AY41" s="2"/>
       <c r="AZ41" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="BA41" s="2"/>
       <c r="BB41" s="2"/>
@@ -13862,13 +13936,13 @@
     </row>
     <row r="42" spans="1:89" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>189</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>24</v>
@@ -13918,7 +13992,7 @@
         <v>24</v>
       </c>
       <c r="Y42" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z42" s="4">
         <v>171</v>
@@ -13927,7 +14001,7 @@
         <v>299</v>
       </c>
       <c r="AB42" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
@@ -13993,13 +14067,13 @@
     </row>
     <row r="43" spans="1:89" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>286</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>24</v>
@@ -14049,7 +14123,7 @@
         <v>24</v>
       </c>
       <c r="Y43" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Z43" s="22">
         <v>4</v>
@@ -14058,7 +14132,7 @@
         <v>16</v>
       </c>
       <c r="AB43" s="22" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AC43" s="22">
         <v>4.3</v>
@@ -14067,28 +14141,28 @@
         <v>4.3</v>
       </c>
       <c r="AE43" s="22" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AF43" s="22" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG43" s="22" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AH43" s="29" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AI43" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AJ43" s="22" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AK43" s="29" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AL43" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AM43" s="22"/>
       <c r="AN43" s="29"/>
@@ -14104,7 +14178,7 @@
       <c r="AX43" s="22"/>
       <c r="AY43" s="2"/>
       <c r="AZ43" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="BA43" s="2"/>
       <c r="BB43" s="2"/>
@@ -14146,13 +14220,13 @@
     </row>
     <row r="44" spans="1:89" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>200</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>24</v>
@@ -14198,7 +14272,7 @@
         <v>24</v>
       </c>
       <c r="Y44" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Z44" s="13">
         <v>20</v>
@@ -14207,7 +14281,7 @@
         <v>49</v>
       </c>
       <c r="AB44" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AC44" s="13">
         <v>3.2</v>
@@ -14216,46 +14290,46 @@
         <v>1.2669999999999999</v>
       </c>
       <c r="AE44" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="AF44" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG44" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="AF44" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG44" s="13" t="s">
+      <c r="AH44" s="25" t="s">
         <v>698</v>
       </c>
-      <c r="AH44" s="25" t="s">
+      <c r="AI44" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="AJ44" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="AK44" s="13" t="s">
+        <v>817</v>
+      </c>
+      <c r="AL44" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="AM44" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="AN44" s="25" t="s">
         <v>699</v>
       </c>
-      <c r="AI44" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="AJ44" s="13" t="s">
-        <v>698</v>
-      </c>
-      <c r="AK44" s="13" t="s">
+      <c r="AO44" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="AP44" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="AQ44" s="25" t="s">
         <v>818</v>
       </c>
-      <c r="AL44" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="AM44" s="13" t="s">
-        <v>674</v>
-      </c>
-      <c r="AN44" s="25" t="s">
-        <v>700</v>
-      </c>
-      <c r="AO44" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="AP44" s="13" t="s">
-        <v>674</v>
-      </c>
-      <c r="AQ44" s="25" t="s">
-        <v>819</v>
-      </c>
       <c r="AR44" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AS44" s="13"/>
       <c r="AT44" s="13"/>
@@ -14265,7 +14339,7 @@
       <c r="AX44" s="13"/>
       <c r="AY44" s="2"/>
       <c r="AZ44" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="BA44" s="17"/>
       <c r="BB44" s="17"/>
@@ -14307,13 +14381,13 @@
     </row>
     <row r="45" spans="1:89" s="6" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>246</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>24</v>
@@ -14359,14 +14433,14 @@
         <v>44</v>
       </c>
       <c r="Y45" s="13" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Z45" s="13"/>
       <c r="AA45" s="13">
         <v>96</v>
       </c>
       <c r="AB45" s="13" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AC45" s="13"/>
       <c r="AD45" s="13"/>
@@ -14392,7 +14466,7 @@
       <c r="AX45" s="13"/>
       <c r="AY45" s="2"/>
       <c r="AZ45" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="BA45" s="2"/>
       <c r="BB45" s="2"/>
@@ -14434,13 +14508,13 @@
     </row>
     <row r="46" spans="1:89" s="12" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>239</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>24</v>
@@ -14490,7 +14564,7 @@
         <v>24</v>
       </c>
       <c r="Y46" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z46" s="4">
         <v>40</v>
@@ -14499,7 +14573,7 @@
         <v>74</v>
       </c>
       <c r="AB46" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AC46" s="4">
         <v>2.6</v>
@@ -14508,58 +14582,58 @@
         <v>1.7250000000000001</v>
       </c>
       <c r="AE46" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="AF46" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG46" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="AH46" s="28" t="s">
         <v>685</v>
       </c>
-      <c r="AF46" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG46" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="AH46" s="28" t="s">
-        <v>686</v>
-      </c>
       <c r="AI46" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AJ46" s="4"/>
       <c r="AK46" s="28"/>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AN46" s="28" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AO46" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AP46" s="4"/>
       <c r="AQ46" s="28"/>
       <c r="AR46" s="4"/>
       <c r="AS46" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="AT46" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="AT46" s="4" t="s">
-        <v>689</v>
-      </c>
       <c r="AU46" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AV46" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AW46" s="4"/>
       <c r="AX46" s="4"/>
       <c r="AY46" s="2"/>
       <c r="AZ46" s="39" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="BA46" s="2" t="s">
         <v>298</v>
       </c>
       <c r="BB46" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="BC46" s="2"/>
       <c r="BD46" s="2"/>
@@ -14599,13 +14673,13 @@
     </row>
     <row r="47" spans="1:89" s="12" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>24</v>
@@ -14617,14 +14691,14 @@
         <v>167</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3">
         <v>4</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K47" s="44">
         <v>1</v>
@@ -14635,27 +14709,27 @@
       <c r="M47" s="44"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
         <v>24</v>
       </c>
       <c r="Y47" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z47" s="23">
         <v>5</v>
@@ -14664,7 +14738,7 @@
         <v>14</v>
       </c>
       <c r="AB47" s="23" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AC47" s="23">
         <v>2.6</v>
@@ -14673,64 +14747,64 @@
         <v>2.2970000000000002</v>
       </c>
       <c r="AE47" s="23" t="s">
+        <v>684</v>
+      </c>
+      <c r="AF47" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG47" s="23" t="s">
+        <v>662</v>
+      </c>
+      <c r="AH47" s="23" t="s">
         <v>685</v>
       </c>
-      <c r="AF47" s="23" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG47" s="23" t="s">
-        <v>663</v>
-      </c>
-      <c r="AH47" s="23" t="s">
+      <c r="AI47" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="AJ47" s="23" t="s">
+        <v>662</v>
+      </c>
+      <c r="AK47" s="27" t="s">
+        <v>728</v>
+      </c>
+      <c r="AL47" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="AM47" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="AN47" s="27" t="s">
         <v>686</v>
       </c>
-      <c r="AI47" s="23" t="s">
-        <v>596</v>
-      </c>
-      <c r="AJ47" s="23" t="s">
-        <v>663</v>
-      </c>
-      <c r="AK47" s="27" t="s">
-        <v>729</v>
-      </c>
-      <c r="AL47" s="23" t="s">
-        <v>634</v>
-      </c>
-      <c r="AM47" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="AN47" s="27" t="s">
+      <c r="AO47" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="AP47" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="AQ47" s="27" t="s">
+        <v>748</v>
+      </c>
+      <c r="AR47" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="AS47" s="23" t="s">
         <v>687</v>
       </c>
-      <c r="AO47" s="23" t="s">
-        <v>596</v>
-      </c>
-      <c r="AP47" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="AQ47" s="27" t="s">
+      <c r="AT47" s="23" t="s">
+        <v>688</v>
+      </c>
+      <c r="AU47" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="AV47" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="AW47" s="23" t="s">
         <v>749</v>
       </c>
-      <c r="AR47" s="23" t="s">
-        <v>596</v>
-      </c>
-      <c r="AS47" s="23" t="s">
-        <v>688</v>
-      </c>
-      <c r="AT47" s="23" t="s">
-        <v>689</v>
-      </c>
-      <c r="AU47" s="23" t="s">
-        <v>634</v>
-      </c>
-      <c r="AV47" s="23" t="s">
-        <v>688</v>
-      </c>
-      <c r="AW47" s="23" t="s">
-        <v>750</v>
-      </c>
       <c r="AX47" s="23" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AY47" s="2"/>
       <c r="AZ47" s="2"/>
@@ -14774,13 +14848,13 @@
     </row>
     <row r="48" spans="1:89" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>236</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>24</v>
@@ -14828,7 +14902,7 @@
         <v>24</v>
       </c>
       <c r="Y48" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z48" s="13">
         <v>128</v>
@@ -14837,26 +14911,26 @@
         <v>251</v>
       </c>
       <c r="AB48" s="13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AC48" s="13">
         <v>1.9</v>
       </c>
       <c r="AD48" s="13"/>
       <c r="AE48" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AF48" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG48" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="AG48" s="13" t="s">
-        <v>621</v>
-      </c>
       <c r="AH48" s="25" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AI48" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AJ48" s="13"/>
       <c r="AK48" s="25"/>
@@ -14875,13 +14949,13 @@
       <c r="AX48" s="13"/>
       <c r="AY48" s="2"/>
       <c r="AZ48" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="BA48" s="2" t="s">
         <v>165</v>
       </c>
       <c r="BB48" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="BC48" s="2"/>
       <c r="BD48" s="2"/>
@@ -14921,13 +14995,13 @@
     </row>
     <row r="49" spans="1:89" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>280</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>24</v>
@@ -14970,7 +15044,7 @@
         <v>24</v>
       </c>
       <c r="Y49" s="22" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="Z49" s="22">
         <v>123</v>
@@ -14979,7 +15053,7 @@
         <v>231</v>
       </c>
       <c r="AB49" s="22" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AC49" s="22">
         <v>2.4</v>
@@ -14988,37 +15062,37 @@
         <v>1.3979999999999999</v>
       </c>
       <c r="AE49" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="AF49" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG49" s="22" t="s">
+        <v>697</v>
+      </c>
+      <c r="AH49" s="29" t="s">
         <v>768</v>
       </c>
-      <c r="AF49" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG49" s="22" t="s">
-        <v>698</v>
-      </c>
-      <c r="AH49" s="29" t="s">
-        <v>769</v>
-      </c>
       <c r="AI49" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AJ49" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AK49" s="29" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AL49" s="22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AM49" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AN49" s="29" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AO49" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AP49" s="22"/>
       <c r="AQ49" s="29"/>
@@ -15071,13 +15145,13 @@
     </row>
     <row r="50" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>231</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>24</v>
@@ -15120,33 +15194,33 @@
         <v>44</v>
       </c>
       <c r="Y50" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z50" s="13"/>
       <c r="AA50" s="13">
         <v>68</v>
       </c>
       <c r="AB50" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="AC50" s="13" t="s">
         <v>887</v>
-      </c>
-      <c r="AC50" s="13" t="s">
-        <v>888</v>
       </c>
       <c r="AD50" s="13"/>
       <c r="AE50" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="AF50" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG50" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="AH50" s="25" t="s">
         <v>889</v>
       </c>
-      <c r="AF50" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG50" s="13" t="s">
-        <v>889</v>
-      </c>
-      <c r="AH50" s="25" t="s">
+      <c r="AI50" s="13" t="s">
         <v>890</v>
-      </c>
-      <c r="AI50" s="13" t="s">
-        <v>891</v>
       </c>
       <c r="AJ50" s="13"/>
       <c r="AK50" s="25"/>
@@ -15165,7 +15239,7 @@
       <c r="AX50" s="13"/>
       <c r="AY50" s="3"/>
       <c r="AZ50" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="BA50" s="3"/>
       <c r="BB50" s="3" t="s">
@@ -15209,13 +15283,13 @@
     </row>
     <row r="51" spans="1:89" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>24</v>
@@ -15227,14 +15301,14 @@
         <v>167</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3">
         <v>4</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K51" s="44">
         <v>1</v>
@@ -15245,15 +15319,15 @@
       <c r="M51" s="44"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="S51" s="3" t="s">
         <v>579</v>
-      </c>
-      <c r="S51" s="3" t="s">
-        <v>580</v>
       </c>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -15265,7 +15339,7 @@
         <v>24</v>
       </c>
       <c r="Y51" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z51" s="23">
         <v>2</v>
@@ -15274,26 +15348,26 @@
         <v>2</v>
       </c>
       <c r="AB51" s="23" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AC51" s="23">
         <v>2.6</v>
       </c>
       <c r="AD51" s="23"/>
       <c r="AE51" s="23" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AF51" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG51" s="23" t="s">
         <v>620</v>
       </c>
-      <c r="AG51" s="23" t="s">
-        <v>621</v>
-      </c>
       <c r="AH51" s="27" t="s">
+        <v>632</v>
+      </c>
+      <c r="AI51" s="23" t="s">
         <v>633</v>
-      </c>
-      <c r="AI51" s="23" t="s">
-        <v>634</v>
       </c>
       <c r="AJ51" s="23"/>
       <c r="AK51" s="27"/>
@@ -15312,7 +15386,7 @@
       <c r="AX51" s="23"/>
       <c r="AY51" s="2"/>
       <c r="AZ51" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="BA51" s="2"/>
       <c r="BB51" s="2" t="s">
@@ -15356,13 +15430,13 @@
     </row>
     <row r="52" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>264</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>24</v>
@@ -15405,14 +15479,14 @@
         <v>44</v>
       </c>
       <c r="Y52" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z52" s="13"/>
       <c r="AA52" s="13">
         <v>18</v>
       </c>
       <c r="AB52" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AC52" s="13">
         <v>1.9</v>
@@ -15421,46 +15495,46 @@
         <v>1.9</v>
       </c>
       <c r="AE52" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="AF52" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG52" s="13" t="s">
         <v>849</v>
       </c>
-      <c r="AF52" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG52" s="13" t="s">
+      <c r="AH52" s="25" t="s">
         <v>850</v>
       </c>
-      <c r="AH52" s="25" t="s">
+      <c r="AI52" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="AJ52" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="AK52" s="25" t="s">
+        <v>850</v>
+      </c>
+      <c r="AL52" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="AM52" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="AN52" s="25" t="s">
         <v>851</v>
       </c>
-      <c r="AI52" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="AJ52" s="13" t="s">
-        <v>850</v>
-      </c>
-      <c r="AK52" s="25" t="s">
+      <c r="AO52" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="AP52" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="AQ52" s="25" t="s">
         <v>851</v>
       </c>
-      <c r="AL52" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="AM52" s="13" t="s">
-        <v>644</v>
-      </c>
-      <c r="AN52" s="25" t="s">
-        <v>852</v>
-      </c>
-      <c r="AO52" s="13" t="s">
-        <v>630</v>
-      </c>
-      <c r="AP52" s="13" t="s">
-        <v>644</v>
-      </c>
-      <c r="AQ52" s="25" t="s">
-        <v>852</v>
-      </c>
       <c r="AR52" s="13" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AS52" s="13"/>
       <c r="AT52" s="13"/>
@@ -15470,13 +15544,13 @@
       <c r="AX52" s="13"/>
       <c r="AY52" s="3"/>
       <c r="AZ52" s="39" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="BA52" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BB52" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="BC52" s="2"/>
       <c r="BD52" s="2"/>
@@ -15516,13 +15590,13 @@
     </row>
     <row r="53" spans="1:89" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>256</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>24</v>
@@ -15570,7 +15644,7 @@
         <v>24</v>
       </c>
       <c r="Y53" s="22" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="Z53" s="22">
         <v>3</v>
@@ -15579,7 +15653,7 @@
         <v>4</v>
       </c>
       <c r="AB53" s="22" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AC53" s="22">
         <v>2.4</v>
@@ -15588,46 +15662,46 @@
         <v>1.819</v>
       </c>
       <c r="AE53" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="AF53" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG53" s="22" t="s">
+        <v>697</v>
+      </c>
+      <c r="AH53" s="29" t="s">
         <v>768</v>
       </c>
-      <c r="AF53" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG53" s="22" t="s">
-        <v>698</v>
-      </c>
-      <c r="AH53" s="29" t="s">
+      <c r="AI53" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="AJ53" s="22" t="s">
+        <v>697</v>
+      </c>
+      <c r="AK53" s="29" t="s">
         <v>769</v>
       </c>
-      <c r="AI53" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="AJ53" s="22" t="s">
-        <v>698</v>
-      </c>
-      <c r="AK53" s="29" t="s">
-        <v>770</v>
-      </c>
       <c r="AL53" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AM53" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AN53" s="29" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AO53" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AP53" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AQ53" s="22" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AR53" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AS53" s="22"/>
       <c r="AT53" s="22"/>
@@ -15677,13 +15751,13 @@
     </row>
     <row r="54" spans="1:89" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>24</v>
@@ -15702,7 +15776,7 @@
         <v>2</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K54" s="42">
         <v>1</v>
@@ -15713,69 +15787,69 @@
       <c r="M54" s="42"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
       <c r="V54" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="W54" s="6"/>
       <c r="X54" s="18" t="s">
         <v>44</v>
       </c>
       <c r="Y54" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z54" s="13"/>
       <c r="AA54" s="13">
         <v>38</v>
       </c>
       <c r="AB54" s="13" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AC54" s="13">
         <v>2</v>
       </c>
       <c r="AD54" s="13"/>
       <c r="AE54" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="AF54" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG54" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="AH54" s="25" t="s">
         <v>883</v>
       </c>
-      <c r="AF54" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG54" s="13" t="s">
-        <v>663</v>
-      </c>
-      <c r="AH54" s="25" t="s">
-        <v>884</v>
-      </c>
       <c r="AI54" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AJ54" s="13"/>
       <c r="AK54" s="25"/>
       <c r="AL54" s="13"/>
       <c r="AM54" s="13" t="s">
+        <v>884</v>
+      </c>
+      <c r="AN54" s="25" t="s">
         <v>885</v>
       </c>
-      <c r="AN54" s="25" t="s">
-        <v>886</v>
-      </c>
       <c r="AO54" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AP54" s="13"/>
       <c r="AQ54" s="25"/>
       <c r="AR54" s="13"/>
       <c r="AS54" s="13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AT54" s="13"/>
       <c r="AU54" s="13"/>
@@ -15784,11 +15858,11 @@
       <c r="AX54" s="13"/>
       <c r="AY54" s="2"/>
       <c r="AZ54" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="BA54" s="2"/>
       <c r="BB54" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="BC54" s="17"/>
       <c r="BD54" s="17"/>
@@ -15828,13 +15902,13 @@
     </row>
     <row r="55" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>24</v>
@@ -15880,7 +15954,7 @@
         <v>24</v>
       </c>
       <c r="Y55" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Z55" s="13">
         <v>7</v>
@@ -15889,7 +15963,7 @@
         <v>19</v>
       </c>
       <c r="AB55" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AC55" s="13">
         <v>9.9</v>
@@ -15898,46 +15972,46 @@
         <v>3.536</v>
       </c>
       <c r="AE55" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="AF55" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="AF55" s="13" t="s">
+      <c r="AG55" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="AG55" s="13" t="s">
+      <c r="AH55" s="25" t="s">
         <v>621</v>
       </c>
-      <c r="AH55" s="25" t="s">
+      <c r="AI55" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="AJ55" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="AK55" s="25" t="s">
+        <v>792</v>
+      </c>
+      <c r="AL55" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="AM55" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="AI55" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="AJ55" s="13" t="s">
-        <v>621</v>
-      </c>
-      <c r="AK55" s="25" t="s">
+      <c r="AN55" s="25" t="s">
+        <v>623</v>
+      </c>
+      <c r="AO55" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="AP55" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="AQ55" s="25" t="s">
         <v>793</v>
       </c>
-      <c r="AL55" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="AM55" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN55" s="25" t="s">
-        <v>624</v>
-      </c>
-      <c r="AO55" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="AP55" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="AQ55" s="25" t="s">
-        <v>794</v>
-      </c>
       <c r="AR55" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AS55" s="13"/>
       <c r="AT55" s="13"/>
@@ -15947,11 +16021,11 @@
       <c r="AX55" s="13"/>
       <c r="AY55" s="2"/>
       <c r="AZ55" s="39" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="BA55" s="2"/>
       <c r="BB55" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="BC55" s="3"/>
       <c r="BD55" s="3"/>
@@ -15991,13 +16065,13 @@
     </row>
     <row r="56" spans="1:89" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>24</v>
@@ -16049,7 +16123,7 @@
         <v>24</v>
       </c>
       <c r="Y56" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Z56" s="13">
         <v>4</v>
@@ -16058,26 +16132,26 @@
         <v>15</v>
       </c>
       <c r="AB56" s="13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AC56" s="32">
         <v>5</v>
       </c>
       <c r="AD56" s="13"/>
       <c r="AE56" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="AF56" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG56" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="AH56" s="25" t="s">
         <v>636</v>
       </c>
-      <c r="AF56" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG56" s="13" t="s">
-        <v>636</v>
-      </c>
-      <c r="AH56" s="25" t="s">
-        <v>637</v>
-      </c>
       <c r="AI56" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AJ56" s="13"/>
       <c r="AK56" s="25"/>
@@ -16096,11 +16170,11 @@
       <c r="AX56" s="13"/>
       <c r="AY56" s="2"/>
       <c r="AZ56" s="39" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="BA56" s="17"/>
       <c r="BB56" s="17" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="BC56" s="2"/>
       <c r="BD56" s="2"/>
@@ -16140,13 +16214,13 @@
     </row>
     <row r="57" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>427</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>24</v>
@@ -16189,14 +16263,14 @@
         <v>44</v>
       </c>
       <c r="Y57" s="13" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="Z57" s="13"/>
       <c r="AA57" s="13">
         <v>17</v>
       </c>
       <c r="AB57" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AC57" s="13"/>
       <c r="AD57" s="13"/>
@@ -16222,7 +16296,7 @@
       <c r="AX57" s="13"/>
       <c r="AY57" s="2"/>
       <c r="AZ57" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="BA57" s="2"/>
       <c r="BB57" s="2"/>
@@ -16264,13 +16338,13 @@
     </row>
     <row r="58" spans="1:89" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>147</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>24</v>
@@ -16316,7 +16390,7 @@
         <v>24</v>
       </c>
       <c r="Y58" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Z58" s="13">
         <v>8</v>
@@ -16325,7 +16399,7 @@
         <v>12</v>
       </c>
       <c r="AB58" s="13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AC58" s="13">
         <v>3.8</v>
@@ -16334,28 +16408,28 @@
         <v>3.8</v>
       </c>
       <c r="AE58" s="13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AF58" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG58" s="13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AH58" s="25" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI58" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AJ58" s="13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AK58" s="25" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL58" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AM58" s="13"/>
       <c r="AN58" s="25"/>
@@ -16371,13 +16445,13 @@
       <c r="AX58" s="13"/>
       <c r="AY58" s="2"/>
       <c r="AZ58" s="39" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="BA58" s="2" t="s">
         <v>165</v>
       </c>
       <c r="BB58" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="BC58" s="17"/>
       <c r="BD58" s="17"/>
@@ -16417,13 +16491,13 @@
     </row>
     <row r="59" spans="1:89" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>417</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>24</v>
@@ -16456,14 +16530,14 @@
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
       <c r="R59" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="S59" s="6" t="s">
         <v>418</v>
       </c>
       <c r="T59" s="6"/>
       <c r="U59" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="V59" s="6" t="s">
         <v>419</v>
@@ -16473,7 +16547,7 @@
         <v>24</v>
       </c>
       <c r="Y59" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Z59" s="13">
         <v>41</v>
@@ -16482,7 +16556,7 @@
         <v>105</v>
       </c>
       <c r="AB59" s="13" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AC59" s="13">
         <v>16.600000000000001</v>
@@ -16491,28 +16565,28 @@
         <v>14.324</v>
       </c>
       <c r="AE59" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="AF59" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG59" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="AH59" s="25" t="s">
         <v>725</v>
       </c>
-      <c r="AF59" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG59" s="13" t="s">
+      <c r="AI59" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="AJ59" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="AK59" s="25" t="s">
         <v>725</v>
       </c>
-      <c r="AH59" s="25" t="s">
-        <v>726</v>
-      </c>
-      <c r="AI59" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="AJ59" s="13" t="s">
-        <v>725</v>
-      </c>
-      <c r="AK59" s="25" t="s">
-        <v>726</v>
-      </c>
       <c r="AL59" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AM59" s="13"/>
       <c r="AN59" s="25"/>
@@ -16528,11 +16602,11 @@
       <c r="AX59" s="13"/>
       <c r="AY59" s="2"/>
       <c r="AZ59" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="BA59" s="2"/>
       <c r="BB59" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="BC59" s="2"/>
       <c r="BD59" s="2"/>
@@ -16572,13 +16646,13 @@
     </row>
     <row r="60" spans="1:89" s="13" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>217</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>24</v>
@@ -16628,7 +16702,7 @@
         <v>24</v>
       </c>
       <c r="Y60" s="13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="Z60" s="13">
         <v>60</v>
@@ -16637,38 +16711,38 @@
         <v>116</v>
       </c>
       <c r="AB60" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AC60" s="13">
         <v>4.7</v>
       </c>
       <c r="AE60" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AF60" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG60" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AH60" s="25" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AI60" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AK60" s="25"/>
       <c r="AN60" s="25"/>
       <c r="AQ60" s="25"/>
       <c r="AY60" s="2"/>
       <c r="AZ60" s="39" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="BA60" s="2" t="s">
         <v>170</v>
       </c>
       <c r="BB60" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="BC60" s="2"/>
       <c r="BD60" s="2"/>
@@ -16708,13 +16782,13 @@
     </row>
     <row r="61" spans="1:89" s="9" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>24</v>
@@ -16744,15 +16818,15 @@
       <c r="M61" s="42"/>
       <c r="N61" s="6"/>
       <c r="O61" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
       <c r="R61" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="S61" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="S61" s="6" t="s">
-        <v>470</v>
       </c>
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
@@ -16762,14 +16836,14 @@
         <v>44</v>
       </c>
       <c r="Y61" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Z61" s="13"/>
       <c r="AA61" s="13">
         <v>11</v>
       </c>
       <c r="AB61" s="13" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AC61" s="13"/>
       <c r="AD61" s="13"/>
@@ -16795,10 +16869,10 @@
       <c r="AX61" s="13"/>
       <c r="AY61" s="2"/>
       <c r="AZ61" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="BA61" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="BB61" s="2"/>
       <c r="BC61" s="2"/>
@@ -16839,13 +16913,13 @@
     </row>
     <row r="62" spans="1:89" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="35" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>261</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>24</v>
@@ -16893,7 +16967,7 @@
         <v>24</v>
       </c>
       <c r="Y62" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="Z62" s="4">
         <v>0</v>
@@ -16902,26 +16976,26 @@
         <v>1</v>
       </c>
       <c r="AB62" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AC62" s="4">
         <v>3.5</v>
       </c>
       <c r="AD62" s="4"/>
       <c r="AE62" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="AF62" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG62" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="AH62" s="28" t="s">
         <v>640</v>
       </c>
-      <c r="AF62" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG62" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="AH62" s="28" t="s">
-        <v>641</v>
-      </c>
       <c r="AI62" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AJ62" s="4"/>
       <c r="AK62" s="28"/>
@@ -16980,13 +17054,13 @@
     </row>
     <row r="63" spans="1:89" s="6" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>421</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>24</v>
@@ -17029,14 +17103,14 @@
         <v>44</v>
       </c>
       <c r="Y63" s="13" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="Z63" s="13"/>
       <c r="AA63" s="13">
         <v>10</v>
       </c>
       <c r="AB63" s="13" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AC63" s="13"/>
       <c r="AD63" s="13"/>
@@ -17062,11 +17136,11 @@
       <c r="AX63" s="13"/>
       <c r="AY63" s="2"/>
       <c r="AZ63" s="39" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="BA63" s="2"/>
       <c r="BB63" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="BC63" s="2"/>
       <c r="BD63" s="2"/>
@@ -17106,13 +17180,13 @@
     </row>
     <row r="64" spans="1:89" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A64" s="34" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>24</v>
@@ -17155,7 +17229,7 @@
         <v>24</v>
       </c>
       <c r="Y64" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z64" s="23">
         <v>2</v>
@@ -17164,7 +17238,7 @@
         <v>9</v>
       </c>
       <c r="AB64" s="23" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AC64" s="23">
         <v>2.6</v>
@@ -17173,64 +17247,64 @@
         <v>1.321</v>
       </c>
       <c r="AE64" s="23" t="s">
+        <v>684</v>
+      </c>
+      <c r="AF64" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG64" s="23" t="s">
+        <v>662</v>
+      </c>
+      <c r="AH64" s="23" t="s">
         <v>685</v>
       </c>
-      <c r="AF64" s="23" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG64" s="23" t="s">
-        <v>663</v>
-      </c>
-      <c r="AH64" s="23" t="s">
+      <c r="AI64" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="AJ64" s="23" t="s">
+        <v>662</v>
+      </c>
+      <c r="AK64" s="27" t="s">
+        <v>771</v>
+      </c>
+      <c r="AL64" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="AM64" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="AN64" s="27" t="s">
         <v>686</v>
       </c>
-      <c r="AI64" s="23" t="s">
-        <v>596</v>
-      </c>
-      <c r="AJ64" s="23" t="s">
-        <v>663</v>
-      </c>
-      <c r="AK64" s="27" t="s">
+      <c r="AO64" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="AP64" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="AQ64" s="27" t="s">
         <v>772</v>
       </c>
-      <c r="AL64" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="AM64" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="AN64" s="27" t="s">
+      <c r="AR64" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="AS64" s="23" t="s">
         <v>687</v>
       </c>
-      <c r="AO64" s="23" t="s">
-        <v>596</v>
-      </c>
-      <c r="AP64" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="AQ64" s="27" t="s">
+      <c r="AT64" s="23" t="s">
+        <v>688</v>
+      </c>
+      <c r="AU64" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="AV64" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="AW64" s="23" t="s">
         <v>773</v>
       </c>
-      <c r="AR64" s="23" t="s">
-        <v>634</v>
-      </c>
-      <c r="AS64" s="23" t="s">
-        <v>688</v>
-      </c>
-      <c r="AT64" s="23" t="s">
-        <v>689</v>
-      </c>
-      <c r="AU64" s="23" t="s">
-        <v>634</v>
-      </c>
-      <c r="AV64" s="23" t="s">
-        <v>688</v>
-      </c>
-      <c r="AW64" s="23" t="s">
-        <v>774</v>
-      </c>
       <c r="AX64" s="23" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AY64" s="2"/>
       <c r="AZ64" s="2"/>
@@ -17239,13 +17313,13 @@
     </row>
     <row r="65" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="35" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>114</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>24</v>
@@ -17295,7 +17369,7 @@
         <v>24</v>
       </c>
       <c r="Y65" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="Z65" s="4">
         <v>17</v>
@@ -17304,7 +17378,7 @@
         <v>30</v>
       </c>
       <c r="AB65" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AC65" s="4">
         <v>6</v>
@@ -17313,28 +17387,28 @@
         <v>3.956</v>
       </c>
       <c r="AE65" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="AF65" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG65" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="AH65" s="28" t="s">
         <v>777</v>
       </c>
-      <c r="AF65" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG65" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="AH65" s="28" t="s">
+      <c r="AI65" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="AJ65" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="AK65" s="28" t="s">
         <v>778</v>
       </c>
-      <c r="AI65" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="AJ65" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="AK65" s="28" t="s">
-        <v>779</v>
-      </c>
       <c r="AL65" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AM65" s="4"/>
       <c r="AN65" s="28"/>
@@ -17350,7 +17424,7 @@
       <c r="AX65" s="4"/>
       <c r="AY65" s="2"/>
       <c r="AZ65" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="BA65" s="2"/>
       <c r="BB65" s="2"/>
@@ -17392,13 +17466,13 @@
     </row>
     <row r="66" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A66" s="33" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>24</v>
@@ -17438,7 +17512,7 @@
         <v>24</v>
       </c>
       <c r="Y66" s="13" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Z66" s="13">
         <v>2</v>
@@ -17447,38 +17521,38 @@
         <v>7</v>
       </c>
       <c r="AB66" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AC66" s="13">
         <v>2.2000000000000002</v>
       </c>
       <c r="AD66" s="13"/>
       <c r="AE66" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="AF66" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG66" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="AH66" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="AF66" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG66" s="13" t="s">
-        <v>663</v>
-      </c>
-      <c r="AH66" s="13" t="s">
-        <v>729</v>
-      </c>
       <c r="AI66" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AJ66" s="13"/>
       <c r="AK66" s="25"/>
       <c r="AL66" s="13"/>
       <c r="AM66" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="AN66" s="25" t="s">
         <v>730</v>
       </c>
-      <c r="AN66" s="25" t="s">
-        <v>731</v>
-      </c>
       <c r="AO66" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AP66" s="13"/>
       <c r="AQ66" s="25"/>
@@ -17491,11 +17565,11 @@
       <c r="AX66" s="13"/>
       <c r="AY66" s="2"/>
       <c r="AZ66" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="BA66" s="2"/>
       <c r="BB66" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="BC66" s="2"/>
       <c r="BD66" s="2"/>
@@ -17535,13 +17609,13 @@
     </row>
     <row r="67" spans="1:89" s="12" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A67" s="35" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>206</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>24</v>
@@ -17591,7 +17665,7 @@
         <v>24</v>
       </c>
       <c r="Y67" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z67" s="4">
         <v>106</v>
@@ -17600,12 +17674,12 @@
         <v>224</v>
       </c>
       <c r="AB67" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
       <c r="AE67" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AF67" s="4"/>
       <c r="AG67" s="4"/>
@@ -17628,7 +17702,7 @@
       <c r="AX67" s="4"/>
       <c r="AY67" s="2"/>
       <c r="AZ67" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="BA67" s="2"/>
       <c r="BB67" s="2" t="s">
@@ -17672,13 +17746,13 @@
     </row>
     <row r="68" spans="1:89" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A68" s="33" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>352</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>44</v>
@@ -17722,7 +17796,7 @@
       </c>
       <c r="T68" s="6"/>
       <c r="U68" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="V68" s="6" t="s">
         <v>356</v>
@@ -17737,13 +17811,13 @@
       <c r="AQ68" s="25"/>
       <c r="AY68" s="2"/>
       <c r="AZ68" s="39" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="BA68" s="2" t="s">
         <v>165</v>
       </c>
       <c r="BB68" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="BC68" s="2"/>
       <c r="BD68" s="2"/>
@@ -17783,13 +17857,13 @@
     </row>
     <row r="69" spans="1:89" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="37" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>44</v>
@@ -17829,7 +17903,7 @@
       </c>
       <c r="T69" s="8"/>
       <c r="U69" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="V69" s="8" t="s">
         <v>41</v>
@@ -17839,7 +17913,7 @@
         <v>24</v>
       </c>
       <c r="Y69" s="24" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="Z69" s="24">
         <v>113</v>
@@ -17848,53 +17922,53 @@
         <v>182</v>
       </c>
       <c r="AB69" s="24" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AC69" s="24">
         <v>4.7</v>
       </c>
       <c r="AD69" s="24"/>
       <c r="AE69" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="AF69" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG69" s="24" t="s">
+        <v>776</v>
+      </c>
+      <c r="AH69" s="30" t="s">
         <v>835</v>
       </c>
-      <c r="AF69" s="24" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG69" s="24" t="s">
-        <v>777</v>
-      </c>
-      <c r="AH69" s="30" t="s">
+      <c r="AI69" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="AJ69" s="24" t="s">
+        <v>776</v>
+      </c>
+      <c r="AK69" s="30" t="s">
+        <v>837</v>
+      </c>
+      <c r="AL69" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="AM69" s="24" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN69" s="30" t="s">
         <v>836</v>
       </c>
-      <c r="AI69" s="24" t="s">
-        <v>596</v>
-      </c>
-      <c r="AJ69" s="24" t="s">
-        <v>777</v>
-      </c>
-      <c r="AK69" s="30" t="s">
+      <c r="AO69" s="24" t="s">
+        <v>633</v>
+      </c>
+      <c r="AP69" s="24" t="s">
+        <v>639</v>
+      </c>
+      <c r="AQ69" s="30" t="s">
         <v>838</v>
       </c>
-      <c r="AL69" s="24" t="s">
-        <v>630</v>
-      </c>
-      <c r="AM69" s="24" t="s">
-        <v>640</v>
-      </c>
-      <c r="AN69" s="30" t="s">
-        <v>837</v>
-      </c>
-      <c r="AO69" s="24" t="s">
-        <v>634</v>
-      </c>
-      <c r="AP69" s="24" t="s">
-        <v>640</v>
-      </c>
-      <c r="AQ69" s="30" t="s">
-        <v>839</v>
-      </c>
       <c r="AR69" s="24" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AS69" s="24"/>
       <c r="AT69" s="24"/>
@@ -17904,7 +17978,7 @@
       <c r="AX69" s="24"/>
       <c r="AY69" s="2"/>
       <c r="AZ69" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="BA69" s="2"/>
       <c r="BB69" s="2"/>
@@ -17946,13 +18020,13 @@
     </row>
     <row r="70" spans="1:89" s="6" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A70" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>405</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>44</v>
@@ -17992,7 +18066,7 @@
       </c>
       <c r="T70" s="12"/>
       <c r="U70" s="12" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="V70" s="12"/>
       <c r="W70" s="12"/>
@@ -18000,14 +18074,14 @@
         <v>44</v>
       </c>
       <c r="Y70" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Z70" s="22"/>
       <c r="AA70" s="22">
         <v>1</v>
       </c>
       <c r="AB70" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AC70" s="22"/>
       <c r="AD70" s="22"/>
@@ -18033,11 +18107,11 @@
       <c r="AX70" s="22"/>
       <c r="AY70" s="2"/>
       <c r="AZ70" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="BA70" s="2"/>
       <c r="BB70" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="BC70" s="17"/>
       <c r="BD70" s="17"/>
@@ -18077,13 +18151,13 @@
     </row>
     <row r="71" spans="1:89" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A71" s="34" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>44</v>
@@ -18125,7 +18199,7 @@
       </c>
       <c r="T71" s="3"/>
       <c r="U71" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="V71" s="3" t="s">
         <v>75</v>
@@ -18135,7 +18209,7 @@
         <v>24</v>
       </c>
       <c r="Y71" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z71" s="23">
         <v>16</v>
@@ -18144,38 +18218,38 @@
         <v>22</v>
       </c>
       <c r="AB71" s="23" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AC71" s="23">
         <v>2.1</v>
       </c>
       <c r="AD71" s="23"/>
       <c r="AE71" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="AF71" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG71" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="AF71" s="23" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG71" s="23" t="s">
+      <c r="AH71" s="27" t="s">
         <v>842</v>
       </c>
-      <c r="AH71" s="27" t="s">
-        <v>843</v>
-      </c>
       <c r="AI71" s="23" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AJ71" s="23"/>
       <c r="AK71" s="27"/>
       <c r="AL71" s="23"/>
       <c r="AM71" s="23" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AN71" s="27" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AO71" s="23" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AP71" s="23"/>
       <c r="AQ71" s="27"/>
@@ -18228,13 +18302,13 @@
     </row>
     <row r="72" spans="1:89" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A72" s="36" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>377</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>44</v>
@@ -18276,7 +18350,7 @@
       </c>
       <c r="T72" s="12"/>
       <c r="U72" s="12" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="V72" s="12"/>
       <c r="W72" s="12"/>
@@ -18284,7 +18358,7 @@
         <v>24</v>
       </c>
       <c r="Y72" s="22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z72" s="22">
         <v>2</v>
@@ -18293,7 +18367,7 @@
         <v>8</v>
       </c>
       <c r="AB72" s="22" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AC72" s="22">
         <v>2.2000000000000002</v>
@@ -18302,46 +18376,46 @@
         <v>2.0089999999999999</v>
       </c>
       <c r="AE72" s="22" t="s">
+        <v>727</v>
+      </c>
+      <c r="AF72" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG72" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="AH72" s="29" t="s">
         <v>728</v>
       </c>
-      <c r="AF72" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG72" s="22" t="s">
+      <c r="AI72" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="AJ72" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="AK72" s="29" t="s">
         <v>663</v>
       </c>
-      <c r="AH72" s="29" t="s">
+      <c r="AL72" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="AM72" s="22" t="s">
         <v>729</v>
       </c>
-      <c r="AI72" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="AJ72" s="22" t="s">
-        <v>663</v>
-      </c>
-      <c r="AK72" s="29" t="s">
-        <v>664</v>
-      </c>
-      <c r="AL72" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="AM72" s="22" t="s">
+      <c r="AN72" s="29" t="s">
         <v>730</v>
       </c>
-      <c r="AN72" s="29" t="s">
+      <c r="AO72" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="AP72" s="22" t="s">
+        <v>729</v>
+      </c>
+      <c r="AQ72" s="29" t="s">
         <v>731</v>
       </c>
-      <c r="AO72" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="AP72" s="22" t="s">
-        <v>730</v>
-      </c>
-      <c r="AQ72" s="29" t="s">
-        <v>732</v>
-      </c>
       <c r="AR72" s="22" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AS72" s="22"/>
       <c r="AT72" s="22"/>
@@ -18351,7 +18425,7 @@
       <c r="AX72" s="22"/>
       <c r="AY72" s="2"/>
       <c r="AZ72" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="BA72" s="2"/>
       <c r="BB72" s="2"/>
@@ -18393,13 +18467,13 @@
     </row>
     <row r="73" spans="1:89" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A73" s="33" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>371</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>44</v>
@@ -18436,13 +18510,13 @@
         <v>376</v>
       </c>
       <c r="U73" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="X73" s="6" t="s">
         <v>24</v>
       </c>
       <c r="Y73" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Z73" s="13">
         <v>1</v>
@@ -18451,7 +18525,7 @@
         <v>1</v>
       </c>
       <c r="AB73" s="13" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AC73" s="13">
         <v>2.7</v>
@@ -18460,68 +18534,68 @@
         <v>2.8380000000000001</v>
       </c>
       <c r="AE73" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="AF73" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG73" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="AF73" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG73" s="13" t="s">
+      <c r="AH73" s="25" t="s">
         <v>704</v>
       </c>
-      <c r="AH73" s="25" t="s">
+      <c r="AI73" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="AJ73" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="AK73" s="25" t="s">
+        <v>709</v>
+      </c>
+      <c r="AL73" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="AM73" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="AI73" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="AJ73" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="AK73" s="25" t="s">
+      <c r="AN73" s="25" t="s">
+        <v>706</v>
+      </c>
+      <c r="AO73" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="AP73" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="AQ73" s="25" t="s">
         <v>710</v>
       </c>
-      <c r="AL73" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="AM73" s="13" t="s">
-        <v>706</v>
-      </c>
-      <c r="AN73" s="25" t="s">
+      <c r="AR73" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="AS73" s="13" t="s">
         <v>707</v>
       </c>
-      <c r="AO73" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="AP73" s="13" t="s">
-        <v>706</v>
-      </c>
-      <c r="AQ73" s="25" t="s">
+      <c r="AT73" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="AU73" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="AV73" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="AW73" s="13" t="s">
         <v>711</v>
       </c>
-      <c r="AR73" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="AS73" s="13" t="s">
-        <v>708</v>
-      </c>
-      <c r="AT73" s="13" t="s">
-        <v>709</v>
-      </c>
-      <c r="AU73" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="AV73" s="13" t="s">
-        <v>708</v>
-      </c>
-      <c r="AW73" s="13" t="s">
-        <v>712</v>
-      </c>
       <c r="AX73" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AY73" s="2"/>
       <c r="AZ73" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="BA73" s="2"/>
       <c r="BB73" s="2" t="s">
@@ -18565,13 +18639,13 @@
     </row>
     <row r="74" spans="1:89" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>161</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>44</v>
@@ -18613,7 +18687,7 @@
         <v>24</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z74" s="13">
         <v>53</v>
@@ -18622,7 +18696,7 @@
         <v>107</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AC74" s="13">
         <v>4.7</v>
@@ -18631,28 +18705,28 @@
         <v>2.5590000000000002</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AH74" s="25" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AK74" s="25">
         <v>46296</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AM74" s="13"/>
       <c r="AN74" s="25"/>
@@ -18668,11 +18742,11 @@
       <c r="AX74" s="13"/>
       <c r="AY74" s="2"/>
       <c r="AZ74" s="39" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="BA74" s="2"/>
       <c r="BB74" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="BC74" s="2"/>
       <c r="BD74" s="2"/>
@@ -18712,13 +18786,13 @@
     </row>
     <row r="75" spans="1:89" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A75" s="36" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>388</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>44</v>
@@ -18770,7 +18844,7 @@
         <v>24</v>
       </c>
       <c r="Y75" s="22" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="Z75" s="22">
         <v>3</v>
@@ -18779,7 +18853,7 @@
         <v>5</v>
       </c>
       <c r="AB75" s="22" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AC75" s="22">
         <v>1.1000000000000001</v>
@@ -18788,46 +18862,46 @@
         <v>0.81299999999999994</v>
       </c>
       <c r="AE75" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="AF75" s="22" t="s">
+        <v>755</v>
+      </c>
+      <c r="AG75" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="AH75" s="29" t="s">
         <v>753</v>
       </c>
-      <c r="AF75" s="22" t="s">
+      <c r="AI75" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="AJ75" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="AK75" s="29" t="s">
+        <v>757</v>
+      </c>
+      <c r="AL75" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="AM75" s="22" t="s">
+        <v>754</v>
+      </c>
+      <c r="AN75" s="29" t="s">
         <v>756</v>
       </c>
-      <c r="AG75" s="22" t="s">
-        <v>665</v>
-      </c>
-      <c r="AH75" s="29" t="s">
+      <c r="AO75" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="AP75" s="22" t="s">
         <v>754</v>
       </c>
-      <c r="AI75" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="AJ75" s="22" t="s">
-        <v>665</v>
-      </c>
-      <c r="AK75" s="29" t="s">
+      <c r="AQ75" s="29" t="s">
         <v>758</v>
       </c>
-      <c r="AL75" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="AM75" s="22" t="s">
-        <v>755</v>
-      </c>
-      <c r="AN75" s="29" t="s">
-        <v>757</v>
-      </c>
-      <c r="AO75" s="22" t="s">
-        <v>596</v>
-      </c>
-      <c r="AP75" s="22" t="s">
-        <v>755</v>
-      </c>
-      <c r="AQ75" s="29" t="s">
-        <v>759</v>
-      </c>
       <c r="AR75" s="22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AS75" s="22"/>
       <c r="AT75" s="22"/>
@@ -18837,11 +18911,11 @@
       <c r="AX75" s="22"/>
       <c r="AY75" s="2"/>
       <c r="AZ75" s="39" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="BA75" s="2"/>
       <c r="BB75" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="BC75" s="2"/>
       <c r="BD75" s="2"/>
@@ -18881,13 +18955,13 @@
     </row>
     <row r="76" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>367</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>44</v>
@@ -18937,7 +19011,7 @@
         <v>44</v>
       </c>
       <c r="Y76" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z76" s="4"/>
       <c r="AA76" s="4">
@@ -18968,11 +19042,11 @@
       <c r="AX76" s="4"/>
       <c r="AY76" s="2"/>
       <c r="AZ76" s="39" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="BA76" s="2"/>
       <c r="BB76" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="BC76" s="2"/>
       <c r="BD76" s="2"/>
@@ -19012,13 +19086,13 @@
     </row>
     <row r="77" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="33" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>44</v>
@@ -19058,7 +19132,7 @@
         <v>138</v>
       </c>
       <c r="U77" s="6" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="V77" s="6" t="s">
         <v>144</v>
@@ -19067,7 +19141,7 @@
         <v>24</v>
       </c>
       <c r="Y77" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Z77" s="13">
         <v>12</v>
@@ -19076,7 +19150,7 @@
         <v>17</v>
       </c>
       <c r="AB77" s="13" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AC77" s="13">
         <v>3.4</v>
@@ -19085,28 +19159,28 @@
         <v>3.4140000000000001</v>
       </c>
       <c r="AE77" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AF77" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG77" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="AG77" s="13" t="s">
-        <v>621</v>
-      </c>
       <c r="AH77" s="25" t="s">
+        <v>802</v>
+      </c>
+      <c r="AI77" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="AJ77" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="AK77" s="25" t="s">
         <v>803</v>
       </c>
-      <c r="AI77" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="AJ77" s="13" t="s">
-        <v>621</v>
-      </c>
-      <c r="AK77" s="25" t="s">
-        <v>804</v>
-      </c>
       <c r="AL77" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AM77" s="13"/>
       <c r="AN77" s="25"/>
@@ -19122,13 +19196,13 @@
       <c r="AX77" s="13"/>
       <c r="AY77" s="2"/>
       <c r="AZ77" s="39" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BA77" s="2" t="s">
         <v>136</v>
       </c>
       <c r="BB77" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC77" s="2"/>
       <c r="BD77" s="2"/>
@@ -19168,13 +19242,13 @@
     </row>
     <row r="78" spans="1:89" s="6" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>270</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>44</v>
@@ -19202,7 +19276,7 @@
       </c>
       <c r="M78" s="42"/>
       <c r="O78" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="R78" s="6" t="s">
         <v>272</v>
@@ -19211,7 +19285,7 @@
         <v>274</v>
       </c>
       <c r="U78" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="V78" s="6" t="s">
         <v>273</v>
@@ -19220,7 +19294,7 @@
         <v>24</v>
       </c>
       <c r="Y78" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Z78" s="13">
         <v>8</v>
@@ -19229,7 +19303,7 @@
         <v>12</v>
       </c>
       <c r="AB78" s="13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AC78" s="32">
         <v>6</v>
@@ -19238,68 +19312,68 @@
         <v>6</v>
       </c>
       <c r="AE78" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="AF78" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG78" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="AF78" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG78" s="13" t="s">
+      <c r="AH78" s="25" t="s">
         <v>671</v>
       </c>
-      <c r="AH78" s="25" t="s">
+      <c r="AI78" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="AJ78" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="AK78" s="25" t="s">
+        <v>671</v>
+      </c>
+      <c r="AL78" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="AM78" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="AN78" s="25" t="s">
         <v>672</v>
       </c>
-      <c r="AI78" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="AJ78" s="13" t="s">
-        <v>671</v>
-      </c>
-      <c r="AK78" s="25" t="s">
+      <c r="AO78" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="AP78" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="AQ78" s="25" t="s">
         <v>672</v>
       </c>
-      <c r="AL78" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="AM78" s="13" t="s">
-        <v>649</v>
-      </c>
-      <c r="AN78" s="25" t="s">
+      <c r="AR78" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="AS78" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="AO78" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="AP78" s="13" t="s">
-        <v>649</v>
-      </c>
-      <c r="AQ78" s="25" t="s">
+      <c r="AT78" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="AU78" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="AV78" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="AR78" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="AS78" s="13" t="s">
+      <c r="AW78" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="AT78" s="13" t="s">
-        <v>675</v>
-      </c>
-      <c r="AU78" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="AV78" s="13" t="s">
-        <v>674</v>
-      </c>
-      <c r="AW78" s="13" t="s">
-        <v>675</v>
-      </c>
       <c r="AX78" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AY78" s="17"/>
       <c r="AZ78" s="39" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="BA78" s="2"/>
       <c r="BB78" s="2" t="s">
@@ -19343,13 +19417,13 @@
     </row>
     <row r="79" spans="1:89" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A79" s="36" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>293</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>44</v>
@@ -19391,7 +19465,7 @@
       </c>
       <c r="T79" s="12"/>
       <c r="U79" s="12" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="V79" s="12" t="s">
         <v>296</v>
@@ -19401,7 +19475,7 @@
         <v>24</v>
       </c>
       <c r="Y79" s="22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Z79" s="22">
         <v>22</v>
@@ -19410,7 +19484,7 @@
         <v>43</v>
       </c>
       <c r="AB79" s="22" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AC79" s="22">
         <v>4.3</v>
@@ -19419,28 +19493,28 @@
         <v>1.3240000000000001</v>
       </c>
       <c r="AE79" s="22" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AF79" s="22" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG79" s="22" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AH79" s="22" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AI79" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AJ79" s="22" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AK79" s="22" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AL79" s="22" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AM79" s="22"/>
       <c r="AN79" s="29"/>
@@ -19456,7 +19530,7 @@
       <c r="AX79" s="22"/>
       <c r="AY79" s="2"/>
       <c r="AZ79" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="BA79" s="2"/>
       <c r="BB79" s="2"/>
@@ -19498,13 +19572,13 @@
     </row>
     <row r="80" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>44</v>
@@ -19547,14 +19621,14 @@
         <v>44</v>
       </c>
       <c r="Y80" s="13" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="Z80" s="13"/>
       <c r="AA80" s="13">
         <v>50</v>
       </c>
       <c r="AB80" s="13" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AC80" s="13">
         <v>5.8</v>
@@ -19563,68 +19637,68 @@
         <v>8.702</v>
       </c>
       <c r="AE80" s="13" t="s">
+        <v>859</v>
+      </c>
+      <c r="AF80" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG80" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="AH80" s="25" t="s">
         <v>860</v>
       </c>
-      <c r="AF80" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG80" s="13" t="s">
-        <v>671</v>
-      </c>
-      <c r="AH80" s="25" t="s">
+      <c r="AI80" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="AJ80" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="AK80" s="25" t="s">
         <v>861</v>
       </c>
-      <c r="AI80" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="AJ80" s="13" t="s">
-        <v>671</v>
-      </c>
-      <c r="AK80" s="25" t="s">
+      <c r="AL80" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="AM80" s="13" t="s">
         <v>862</v>
       </c>
-      <c r="AL80" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="AM80" s="13" t="s">
+      <c r="AN80" s="25" t="s">
         <v>863</v>
       </c>
-      <c r="AN80" s="25" t="s">
+      <c r="AO80" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="AP80" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="AQ80" s="25" t="s">
         <v>864</v>
       </c>
-      <c r="AO80" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="AP80" s="13" t="s">
-        <v>863</v>
-      </c>
-      <c r="AQ80" s="25" t="s">
+      <c r="AR80" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="AS80" s="13" t="s">
         <v>865</v>
       </c>
-      <c r="AR80" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="AS80" s="13" t="s">
+      <c r="AT80" s="13" t="s">
         <v>866</v>
       </c>
-      <c r="AT80" s="13" t="s">
+      <c r="AU80" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="AV80" s="13" t="s">
+        <v>865</v>
+      </c>
+      <c r="AW80" s="13" t="s">
         <v>867</v>
       </c>
-      <c r="AU80" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="AV80" s="13" t="s">
-        <v>866</v>
-      </c>
-      <c r="AW80" s="13" t="s">
-        <v>868</v>
-      </c>
       <c r="AX80" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AY80" s="17"/>
       <c r="AZ80" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BA80" s="17"/>
       <c r="BB80" s="17"/>
@@ -19666,13 +19740,13 @@
     </row>
     <row r="81" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A81" s="33" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>44</v>
@@ -19681,7 +19755,7 @@
         <v>2022</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>128</v>
@@ -19700,26 +19774,26 @@
       </c>
       <c r="M81" s="42"/>
       <c r="O81" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S81" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="U81" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="X81" s="18" t="s">
         <v>44</v>
       </c>
       <c r="Y81" s="13" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="Z81" s="13"/>
       <c r="AA81" s="13">
         <v>10</v>
       </c>
       <c r="AB81" s="13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AC81" s="13"/>
       <c r="AD81" s="13"/>
@@ -19745,7 +19819,7 @@
       <c r="AX81" s="13"/>
       <c r="AY81" s="2"/>
       <c r="AZ81" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="BA81" s="3"/>
       <c r="BB81" s="3" t="s">
@@ -19789,13 +19863,13 @@
     </row>
     <row r="82" spans="1:89" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A82" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>44</v>
@@ -19839,7 +19913,7 @@
         <v>131</v>
       </c>
       <c r="U82" s="6" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="V82" s="6" t="s">
         <v>130</v>
@@ -19851,7 +19925,7 @@
         <v>24</v>
       </c>
       <c r="Y82" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Z82" s="13">
         <v>0</v>
@@ -19860,7 +19934,7 @@
         <v>3</v>
       </c>
       <c r="AB82" s="13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AC82" s="13">
         <v>4.5999999999999996</v>
@@ -19869,28 +19943,28 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AE82" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="AF82" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG82" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="AH82" s="25" t="s">
         <v>682</v>
       </c>
-      <c r="AF82" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG82" s="13" t="s">
+      <c r="AI82" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="AJ82" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="AK82" s="25" t="s">
         <v>682</v>
       </c>
-      <c r="AH82" s="25" t="s">
-        <v>683</v>
-      </c>
-      <c r="AI82" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="AJ82" s="13" t="s">
-        <v>682</v>
-      </c>
-      <c r="AK82" s="25" t="s">
-        <v>683</v>
-      </c>
       <c r="AL82" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AM82" s="13"/>
       <c r="AN82" s="25"/>
@@ -19946,7 +20020,7 @@
     </row>
     <row r="83" spans="1:89" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A83" s="36" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>223</v>
@@ -20000,7 +20074,7 @@
         <v>44</v>
       </c>
       <c r="Y83" s="22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z83" s="22"/>
       <c r="AA83" s="22"/>
@@ -20069,13 +20143,13 @@
     </row>
     <row r="84" spans="1:89" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A84" s="33" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>139</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>44</v>
@@ -20084,7 +20158,7 @@
         <v>2015</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>140</v>
@@ -20117,7 +20191,7 @@
       </c>
       <c r="T84" s="6"/>
       <c r="U84" s="6" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="V84" s="6" t="s">
         <v>145</v>
@@ -20127,7 +20201,7 @@
         <v>24</v>
       </c>
       <c r="Y84" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Z84" s="13">
         <v>6</v>
@@ -20136,7 +20210,7 @@
         <v>18</v>
       </c>
       <c r="AB84" s="13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AC84" s="13">
         <v>4.5999999999999996</v>
@@ -20145,28 +20219,28 @@
         <v>5.2279999999999998</v>
       </c>
       <c r="AE84" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="AF84" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG84" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="AH84" s="25" t="s">
         <v>682</v>
       </c>
-      <c r="AF84" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG84" s="13" t="s">
-        <v>682</v>
-      </c>
-      <c r="AH84" s="25" t="s">
-        <v>683</v>
-      </c>
       <c r="AI84" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AJ84" s="13" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AK84" s="25" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AL84" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AM84" s="13"/>
       <c r="AN84" s="25"/>
@@ -20248,7 +20322,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -20266,13 +20340,13 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -20293,10 +20367,10 @@
         <v>25</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:84" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -20304,7 +20378,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C2" s="3">
         <v>2023</v>

--- a/Literature_overview.xlsx
+++ b/Literature_overview.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4F6468-C79B-423A-B4ED-5F70529F2135}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFECB4F-A70C-4495-8061-D96F5992AC87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7478,7 +7478,7 @@
   <dimension ref="A1:CK84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AZ2" sqref="AZ2"/>

--- a/Literature_overview.xlsx
+++ b/Literature_overview.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFECB4F-A70C-4495-8061-D96F5992AC87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67479CB-553D-45B9-826B-E79D98416D8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7478,10 +7478,10 @@
   <dimension ref="A1:CK84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AZ2" sqref="AZ2"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Literature_overview.xlsx
+++ b/Literature_overview.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAABB30D-FE77-4F0A-9A5D-FB61FE04D317}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6D5534-5D14-4663-A299-0083E9B9F78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -745,7 +745,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2607" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="1265">
   <si>
     <t>Publication</t>
   </si>
@@ -7242,6 +7242,292 @@
   </si>
   <si>
     <t>human-likeness, robotic</t>
+  </si>
+  <si>
+    <t>Lehner_2022</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lehner, K., Ziegler, W., &amp; KommPaS Study Group. (2022). Clinical measures of communication limitations in dysarthria assessed through crowdsourcing: Specificity, sensitivity, and retest-reliability. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clinical Linguistics &amp; Phonetics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(11), 988-1009.</t>
+    </r>
+  </si>
+  <si>
+    <t>Lehner</t>
+  </si>
+  <si>
+    <t>"It describes to what extent the way someone speaks sounds natural and not irritating, i.e., whether it conforms to the expected standard of unimpaired speech" (page 990)</t>
+  </si>
+  <si>
+    <t>human and manipulated voices to sound robotic</t>
+  </si>
+  <si>
+    <t>discuss listener adaptation effects</t>
+  </si>
+  <si>
+    <t>dysarthic speech and then rated by naive listeners (0 = very unnatural, 100 = natural)</t>
+  </si>
+  <si>
+    <t>assessment of a diagnostic instrument called "KommPaS" through crowdsourcing, good sensitivity, specificity and retest-reliability; naturalness was the most reliable parameter  discriminating between healthy and dysarthric speakers</t>
+  </si>
+  <si>
+    <t>dysarthria; communication limitation; web-based assessment; crowdsourcing; psychometric evaluation</t>
+  </si>
+  <si>
+    <t>Moya-Gale_2024</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Moya-Galé, G., Pagano, G., &amp; Walsh, S. J. (2024). Perceptual consequences of online group speech treatment for individuals with Parkinson’s disease: A pilot study case series. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>International Journal of Speech-Language Pathology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 1-16.</t>
+    </r>
+  </si>
+  <si>
+    <t>Moya-Gale</t>
+  </si>
+  <si>
+    <t>Parkinsons disease</t>
+  </si>
+  <si>
+    <t>After 10-weeks online treatment, naturalness improved (or stayed the same) in three out of 7 speakers</t>
+  </si>
+  <si>
+    <t>"naturalness, which has been defined as the
+degree to which speech “meets the typical patterns in terms of intonation, voice quality, rate, rhythm, and
+intensity, with respect to the syntactic structure of the
+utterance”" (page 2)</t>
+  </si>
+  <si>
+    <t>monopitch</t>
+  </si>
+  <si>
+    <t>rated via visual analog scale</t>
+  </si>
+  <si>
+    <t>intervention study + rating data</t>
+  </si>
+  <si>
+    <t>van_Prooije_2024</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">van Prooije, T., Knuijt, S., Oostveen, J., Kapteijns, K., Vogel, A. P., &amp; van de Warrenburg, B. (2024). Perceptual and Acoustic Analysis of Speech in Spinocerebellar ataxia Type 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Cerebellum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1), 112-120.</t>
+    </r>
+  </si>
+  <si>
+    <t>spinocerebellar ataxia type 1; speech; dysarthria</t>
+  </si>
+  <si>
+    <t>teletherapy; group treatment; parkinson’s disease; ease of understanding; naturalness; speech severity</t>
+  </si>
+  <si>
+    <t>Spinocerebellar ataxia</t>
+  </si>
+  <si>
+    <t>expert ratings using direct magnitude estimation (DME), anchor was mild disyarthria</t>
+  </si>
+  <si>
+    <t>patients rated as less natural than the healthy controls</t>
+  </si>
+  <si>
+    <t>Liu_2023</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Liu, X., Dong, J., &amp; Jeon, M. (2023). Robots’“Woohoo” and “Argh” Can Enhance Users’ Emotional and Social Perceptions: An Exploratory Study on Non-lexical Vocalizations and Non-linguistic Sounds. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACM Transactions on Human-Robot Interaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(4), 1-20.</t>
+    </r>
+  </si>
+  <si>
+    <t>Liu</t>
+  </si>
+  <si>
+    <t>human-centered computing; auditory feedback; computer systems organization; robotic components</t>
+  </si>
+  <si>
+    <t>non-linguistic vocalizations</t>
+  </si>
+  <si>
+    <t>"Participants showed significantly higher emotion recognition accuracy from the natural voice than from other sounds. […] The natural voice also induced higher trust, naturalness, and preference compared to other sounds."</t>
+  </si>
+  <si>
+    <t>Ziereis_2023</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ziereis, A., &amp; Schacht, A. (2023). Validation of scrambling methods for vocal affect bursts. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Behavior Research Methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 1-13.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ziereis</t>
+  </si>
+  <si>
+    <t>voice manipulation</t>
   </si>
 </sst>
 </file>
@@ -7397,7 +7683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -7575,6 +7861,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7858,13 +8147,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CK89"/>
+  <dimension ref="A1:CK94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z89" sqref="Z89"/>
+      <selection pane="bottomRight" activeCell="U94" sqref="U94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8575,7 +8864,7 @@
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
     </row>
-    <row r="5" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>932</v>
       </c>
@@ -9360,7 +9649,7 @@
       <c r="CJ9" s="2"/>
       <c r="CK9" s="2"/>
     </row>
-    <row r="10" spans="1:89" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" s="3" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>950</v>
       </c>
@@ -9496,7 +9785,7 @@
       <c r="CJ10" s="2"/>
       <c r="CK10" s="2"/>
     </row>
-    <row r="11" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>905</v>
       </c>
@@ -9636,7 +9925,7 @@
       <c r="CJ11" s="2"/>
       <c r="CK11" s="2"/>
     </row>
-    <row r="12" spans="1:89" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>905</v>
       </c>
@@ -10290,7 +10579,7 @@
       <c r="CJ15" s="17"/>
       <c r="CK15" s="17"/>
     </row>
-    <row r="16" spans="1:89" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>951</v>
       </c>
@@ -10596,7 +10885,7 @@
       <c r="CJ17" s="2"/>
       <c r="CK17" s="2"/>
     </row>
-    <row r="18" spans="1:89" s="9" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" s="9" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>894</v>
       </c>
@@ -10775,7 +11064,7 @@
       <c r="CJ18" s="2"/>
       <c r="CK18" s="2"/>
     </row>
-    <row r="19" spans="1:89" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" s="3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>928</v>
       </c>
@@ -10936,7 +11225,7 @@
       <c r="CJ19" s="2"/>
       <c r="CK19" s="2"/>
     </row>
-    <row r="20" spans="1:89" s="6" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>914</v>
       </c>
@@ -11869,7 +12158,7 @@
       <c r="CJ25" s="2"/>
       <c r="CK25" s="2"/>
     </row>
-    <row r="26" spans="1:89" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>927</v>
       </c>
@@ -12159,7 +12448,7 @@
       <c r="CJ27" s="2"/>
       <c r="CK27" s="2"/>
     </row>
-    <row r="28" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:89" s="6" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>942</v>
       </c>
@@ -12793,7 +13082,7 @@
       <c r="CJ31" s="2"/>
       <c r="CK31" s="2"/>
     </row>
-    <row r="32" spans="1:89" s="8" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:89" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
         <v>926</v>
       </c>
@@ -13123,7 +13412,7 @@
       <c r="CJ33" s="2"/>
       <c r="CK33" s="2"/>
     </row>
-    <row r="34" spans="1:89" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:89" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
         <v>900</v>
       </c>
@@ -13810,7 +14099,7 @@
       <c r="CJ37" s="2"/>
       <c r="CK37" s="2"/>
     </row>
-    <row r="38" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
         <v>956</v>
       </c>
@@ -14470,7 +14759,7 @@
       <c r="CJ41" s="2"/>
       <c r="CK41" s="2"/>
     </row>
-    <row r="42" spans="1:89" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:89" s="12" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
         <v>918</v>
       </c>
@@ -14661,7 +14950,7 @@
       <c r="CJ42" s="2"/>
       <c r="CK42" s="2"/>
     </row>
-    <row r="43" spans="1:89" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:89" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
         <v>952</v>
       </c>
@@ -14813,7 +15102,7 @@
       <c r="CJ43" s="2"/>
       <c r="CK43" s="2"/>
     </row>
-    <row r="44" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:89" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
         <v>901</v>
       </c>
@@ -15000,7 +15289,7 @@
       <c r="CJ44" s="2"/>
       <c r="CK44" s="2"/>
     </row>
-    <row r="45" spans="1:89" s="6" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>880</v>
       </c>
@@ -15157,7 +15446,7 @@
       <c r="CJ45" s="2"/>
       <c r="CK45" s="2"/>
     </row>
-    <row r="46" spans="1:89" s="12" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:89" s="12" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>902</v>
       </c>
@@ -15348,7 +15637,7 @@
       <c r="CJ46" s="2"/>
       <c r="CK46" s="2"/>
     </row>
-    <row r="47" spans="1:89" s="12" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:89" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
         <v>916</v>
       </c>
@@ -15509,7 +15798,7 @@
       <c r="CJ47" s="2"/>
       <c r="CK47" s="2"/>
     </row>
-    <row r="48" spans="1:89" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:89" s="12" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
         <v>888</v>
       </c>
@@ -15690,7 +15979,7 @@
       <c r="CJ48" s="2"/>
       <c r="CK48" s="2"/>
     </row>
-    <row r="49" spans="1:89" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:89" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
         <v>925</v>
       </c>
@@ -16176,7 +16465,7 @@
       <c r="CJ51" s="2"/>
       <c r="CK51" s="2"/>
     </row>
-    <row r="52" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
         <v>897</v>
       </c>
@@ -16509,7 +16798,7 @@
       <c r="CJ53" s="2"/>
       <c r="CK53" s="2"/>
     </row>
-    <row r="54" spans="1:89" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:89" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A54" s="37" t="s">
         <v>947</v>
       </c>
@@ -16814,7 +17103,7 @@
       <c r="CJ55" s="3"/>
       <c r="CK55" s="3"/>
     </row>
-    <row r="56" spans="1:89" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:89" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
         <v>939</v>
       </c>
@@ -17086,7 +17375,7 @@
       <c r="CJ57" s="2"/>
       <c r="CK57" s="2"/>
     </row>
-    <row r="58" spans="1:89" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:89" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="36" t="s">
         <v>889</v>
       </c>
@@ -17249,7 +17538,7 @@
       <c r="CJ58" s="17"/>
       <c r="CK58" s="17"/>
     </row>
-    <row r="59" spans="1:89" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:89" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>922</v>
       </c>
@@ -17426,7 +17715,7 @@
       <c r="CJ59" s="2"/>
       <c r="CK59" s="2"/>
     </row>
-    <row r="60" spans="1:89" s="13" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:89" s="13" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
         <v>948</v>
       </c>
@@ -17722,7 +18011,7 @@
       <c r="CJ61" s="2"/>
       <c r="CK61" s="2"/>
     </row>
-    <row r="62" spans="1:89" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:89" s="12" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A62" s="34" t="s">
         <v>903</v>
       </c>
@@ -17907,7 +18196,7 @@
       <c r="CJ62" s="2"/>
       <c r="CK62" s="2"/>
     </row>
-    <row r="63" spans="1:89" s="6" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:89" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>923</v>
       </c>
@@ -18344,7 +18633,7 @@
       <c r="CJ65" s="2"/>
       <c r="CK65" s="2"/>
     </row>
-    <row r="66" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:89" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="34" t="s">
         <v>882</v>
       </c>
@@ -18501,7 +18790,7 @@
       <c r="CJ66" s="2"/>
       <c r="CK66" s="2"/>
     </row>
-    <row r="67" spans="1:89" s="12" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:89" s="12" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A67" s="33" t="s">
         <v>940</v>
       </c>
@@ -19006,7 +19295,7 @@
       <c r="CJ69" s="2"/>
       <c r="CK69" s="2"/>
     </row>
-    <row r="70" spans="1:89" s="6" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="33" t="s">
         <v>912</v>
       </c>
@@ -19481,7 +19770,7 @@
       <c r="CJ72" s="2"/>
       <c r="CK72" s="2"/>
     </row>
-    <row r="73" spans="1:89" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A73" s="53" t="s">
         <v>1179</v>
       </c>
@@ -19620,7 +19909,7 @@
       <c r="CJ73" s="2"/>
       <c r="CK73" s="2"/>
     </row>
-    <row r="74" spans="1:89" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:89" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
         <v>890</v>
       </c>
@@ -19787,7 +20076,7 @@
       <c r="CJ74" s="2"/>
       <c r="CK74" s="2"/>
     </row>
-    <row r="75" spans="1:89" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:89" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="33" t="s">
         <v>898</v>
       </c>
@@ -19952,7 +20241,7 @@
       <c r="CJ75" s="2"/>
       <c r="CK75" s="2"/>
     </row>
-    <row r="76" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:89" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A76" s="33" t="s">
         <v>891</v>
       </c>
@@ -20105,7 +20394,7 @@
       <c r="CJ76" s="2"/>
       <c r="CK76" s="2"/>
     </row>
-    <row r="77" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A77" s="36" t="s">
         <v>949</v>
       </c>
@@ -20228,7 +20517,7 @@
       <c r="CJ77" s="2"/>
       <c r="CK77" s="2"/>
     </row>
-    <row r="78" spans="1:89" s="6" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
         <v>924</v>
       </c>
@@ -20531,7 +20820,7 @@
       <c r="CJ79" s="2"/>
       <c r="CK79" s="2"/>
     </row>
-    <row r="80" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:89" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
         <v>945</v>
       </c>
@@ -20962,7 +21251,7 @@
       <c r="CJ82" s="2"/>
       <c r="CK82" s="2"/>
     </row>
-    <row r="83" spans="1:89" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:89" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A83" s="34" t="s">
         <v>907</v>
       </c>
@@ -21147,7 +21436,7 @@
       <c r="CJ83" s="2"/>
       <c r="CK83" s="2"/>
     </row>
-    <row r="84" spans="1:89" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:89" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A84" s="35" t="s">
         <v>908</v>
       </c>
@@ -21773,6 +22062,9 @@
       <c r="N89" s="6">
         <v>1</v>
       </c>
+      <c r="O89" s="6" t="s">
+        <v>1234</v>
+      </c>
       <c r="P89" s="6" t="s">
         <v>1229</v>
       </c>
@@ -21821,8 +22113,395 @@
         <v>1225</v>
       </c>
     </row>
+    <row r="90" spans="1:89" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A90" s="35" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B90" s="60" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="9">
+        <v>2022</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I90" s="9">
+        <v>2</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K90" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="L90" s="9" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M90" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N90" s="9">
+        <v>0</v>
+      </c>
+      <c r="O90" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="Q90" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="S90" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="V90" s="9" t="s">
+        <v>1235</v>
+      </c>
+      <c r="X90" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4"/>
+      <c r="AA90" s="4"/>
+      <c r="AB90" s="4"/>
+      <c r="AC90" s="4"/>
+      <c r="AD90" s="4"/>
+      <c r="AE90" s="4"/>
+      <c r="AF90" s="4"/>
+      <c r="AG90" s="4"/>
+      <c r="AH90" s="28"/>
+      <c r="AI90" s="4"/>
+      <c r="AJ90" s="4"/>
+      <c r="AK90" s="28"/>
+      <c r="AL90" s="4"/>
+      <c r="AM90" s="4"/>
+      <c r="AN90" s="28"/>
+      <c r="AO90" s="4"/>
+      <c r="AP90" s="4"/>
+      <c r="AQ90" s="28"/>
+      <c r="AR90" s="4"/>
+      <c r="AS90" s="4"/>
+      <c r="AT90" s="4"/>
+      <c r="AU90" s="4"/>
+      <c r="AV90" s="4"/>
+      <c r="AW90" s="4"/>
+      <c r="AX90" s="4"/>
+      <c r="AZ90" s="9" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:89" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A91" s="35" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B91" s="60" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="9">
+        <v>2024</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I91" s="9">
+        <v>1</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K91" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M91" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N91" s="9">
+        <v>0</v>
+      </c>
+      <c r="O91" s="9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="P91" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="Q91" s="9" t="s">
+        <v>1247</v>
+      </c>
+      <c r="R91" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="S91" s="9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4"/>
+      <c r="AA91" s="4"/>
+      <c r="AB91" s="4"/>
+      <c r="AC91" s="4"/>
+      <c r="AD91" s="4"/>
+      <c r="AE91" s="4"/>
+      <c r="AF91" s="4"/>
+      <c r="AG91" s="4"/>
+      <c r="AH91" s="28"/>
+      <c r="AI91" s="4"/>
+      <c r="AJ91" s="4"/>
+      <c r="AK91" s="28"/>
+      <c r="AL91" s="4"/>
+      <c r="AM91" s="4"/>
+      <c r="AN91" s="28"/>
+      <c r="AO91" s="4"/>
+      <c r="AP91" s="4"/>
+      <c r="AQ91" s="28"/>
+      <c r="AR91" s="4"/>
+      <c r="AS91" s="4"/>
+      <c r="AT91" s="4"/>
+      <c r="AU91" s="4"/>
+      <c r="AV91" s="4"/>
+      <c r="AW91" s="4"/>
+      <c r="AX91" s="4"/>
+      <c r="AZ91" s="9" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="92" spans="1:89" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A92" s="35" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B92" s="60" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="9">
+        <v>2024</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I92" s="9">
+        <v>1</v>
+      </c>
+      <c r="K92" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M92" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N92" s="9">
+        <v>0</v>
+      </c>
+      <c r="O92" s="9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="Q92" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="R92" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="S92" s="9" t="s">
+        <v>1254</v>
+      </c>
+      <c r="X92" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="4"/>
+      <c r="AB92" s="4"/>
+      <c r="AC92" s="4"/>
+      <c r="AD92" s="4"/>
+      <c r="AE92" s="4"/>
+      <c r="AF92" s="4"/>
+      <c r="AG92" s="4"/>
+      <c r="AH92" s="28"/>
+      <c r="AI92" s="4"/>
+      <c r="AJ92" s="4"/>
+      <c r="AK92" s="28"/>
+      <c r="AL92" s="4"/>
+      <c r="AM92" s="4"/>
+      <c r="AN92" s="28"/>
+      <c r="AO92" s="4"/>
+      <c r="AP92" s="4"/>
+      <c r="AQ92" s="28"/>
+      <c r="AR92" s="4"/>
+      <c r="AS92" s="4"/>
+      <c r="AT92" s="4"/>
+      <c r="AU92" s="4"/>
+      <c r="AV92" s="4"/>
+      <c r="AW92" s="4"/>
+      <c r="AX92" s="4"/>
+      <c r="AZ92" s="9" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="93" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A93" s="33" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B93" s="58" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93" s="6">
+        <v>2023</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I93" s="6">
+        <v>2</v>
+      </c>
+      <c r="K93" s="42"/>
+      <c r="M93" s="42"/>
+      <c r="P93" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="S93" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="U93" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="Y93" s="13"/>
+      <c r="Z93" s="13"/>
+      <c r="AA93" s="13"/>
+      <c r="AB93" s="13"/>
+      <c r="AC93" s="13"/>
+      <c r="AD93" s="13"/>
+      <c r="AE93" s="13"/>
+      <c r="AF93" s="13"/>
+      <c r="AG93" s="13"/>
+      <c r="AH93" s="25"/>
+      <c r="AI93" s="13"/>
+      <c r="AJ93" s="13"/>
+      <c r="AK93" s="25"/>
+      <c r="AL93" s="13"/>
+      <c r="AM93" s="13"/>
+      <c r="AN93" s="25"/>
+      <c r="AO93" s="13"/>
+      <c r="AP93" s="13"/>
+      <c r="AQ93" s="25"/>
+      <c r="AR93" s="13"/>
+      <c r="AS93" s="13"/>
+      <c r="AT93" s="13"/>
+      <c r="AU93" s="13"/>
+      <c r="AV93" s="13"/>
+      <c r="AW93" s="13"/>
+      <c r="AX93" s="13"/>
+      <c r="AZ93" s="6" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="94" spans="1:89" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="34" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B94" s="61" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E94" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K94" s="44"/>
+      <c r="M94" s="44"/>
+      <c r="U94" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="Y94" s="23"/>
+      <c r="Z94" s="23"/>
+      <c r="AA94" s="23"/>
+      <c r="AB94" s="23"/>
+      <c r="AC94" s="23"/>
+      <c r="AD94" s="23"/>
+      <c r="AE94" s="23"/>
+      <c r="AF94" s="23"/>
+      <c r="AG94" s="23"/>
+      <c r="AH94" s="27"/>
+      <c r="AI94" s="23"/>
+      <c r="AJ94" s="23"/>
+      <c r="AK94" s="27"/>
+      <c r="AL94" s="23"/>
+      <c r="AM94" s="23"/>
+      <c r="AN94" s="27"/>
+      <c r="AO94" s="23"/>
+      <c r="AP94" s="23"/>
+      <c r="AQ94" s="27"/>
+      <c r="AR94" s="23"/>
+      <c r="AS94" s="23"/>
+      <c r="AT94" s="23"/>
+      <c r="AU94" s="23"/>
+      <c r="AV94" s="23"/>
+      <c r="AW94" s="23"/>
+      <c r="AX94" s="23"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:BB86">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BB86">
     <sortCondition ref="A2:A86"/>
   </sortState>
   <hyperlinks>
